--- a/ISRaD_data_files/McFarlane_2024b.xlsx
+++ b/ISRaD_data_files/McFarlane_2024b.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\f0076db\Documents\GitHub\ISRaD\ISRaD_data_files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6025AF75-2BB8-49A0-A27C-B6A8F83914E4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{45375BE2-84E8-4D91-B754-ECFF1735950E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" tabRatio="645" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="38640" windowHeight="21840" tabRatio="1000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="metadata" sheetId="1" r:id="rId1"/>
@@ -64,7 +64,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4378" uniqueCount="1278">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4375" uniqueCount="1279">
   <si>
     <t>curator_name</t>
   </si>
@@ -4944,6 +4944,9 @@
   <si>
     <t>SL_4_0-10_2018</t>
   </si>
+  <si>
+    <t>C and N data directly from the lab and not published in the paper</t>
+  </si>
 </sst>
 </file>
 
@@ -4953,7 +4956,7 @@
     <numFmt numFmtId="164" formatCode="0.0000"/>
     <numFmt numFmtId="165" formatCode="0.0"/>
   </numFmts>
-  <fonts count="36">
+  <fonts count="39">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -5177,6 +5180,24 @@
       <sz val="9"/>
       <name val="Geneva"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
     </font>
   </fonts>
   <fills count="47">
@@ -5943,7 +5964,7 @@
     <xf numFmtId="0" fontId="33" fillId="0" borderId="0" applyBorder="0"/>
     <xf numFmtId="0" fontId="35" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="200">
+  <cellXfs count="206">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -6439,6 +6460,20 @@
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="16" fontId="20" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="36" fillId="0" borderId="0" xfId="251" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="37" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="37" fillId="0" borderId="0" xfId="251" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="38" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -7197,8 +7232,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Q985"/>
   <sheetViews>
-    <sheetView zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="85" workbookViewId="0">
-      <selection activeCell="N4" sqref="N4"/>
+    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="85" workbookViewId="0">
+      <selection activeCell="N5" sqref="N5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="15.1796875" defaultRowHeight="15" customHeight="1"/>
@@ -7366,7 +7401,7 @@
         <v>840</v>
       </c>
     </row>
-    <row r="4" spans="1:17" ht="87">
+    <row r="4" spans="1:17" ht="101.5">
       <c r="A4" s="121" t="s">
         <v>989</v>
       </c>
@@ -7404,7 +7439,9 @@
       <c r="M4" s="134" t="s">
         <v>997</v>
       </c>
-      <c r="N4" s="121"/>
+      <c r="N4" s="121" t="s">
+        <v>1278</v>
+      </c>
       <c r="O4" s="119"/>
       <c r="P4" s="135">
         <v>2022092010</v>
@@ -9759,8 +9796,12 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:AZ1420"/>
   <sheetViews>
-    <sheetView showZeros="0" topLeftCell="A2" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="D14" sqref="D14:D21"/>
+    <sheetView showZeros="0" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <pane xSplit="10455" ySplit="2700" activePane="bottomRight"/>
+      <selection sqref="A1:XFD1048576"/>
+      <selection pane="topRight" activeCell="H1" sqref="H1"/>
+      <selection pane="bottomLeft" activeCell="A25" sqref="A25"/>
+      <selection pane="bottomRight" activeCell="D52" sqref="D52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="15.1796875" defaultRowHeight="15" customHeight="1"/>
@@ -27084,8 +27125,12 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:DJ987"/>
   <sheetViews>
-    <sheetView topLeftCell="AZ2" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C56" sqref="C56:C63"/>
+    <sheetView topLeftCell="A2" zoomScaleNormal="100" workbookViewId="0">
+      <pane xSplit="15315" ySplit="2760" topLeftCell="AQ1" activePane="bottomRight"/>
+      <selection activeCell="A2" sqref="A2"/>
+      <selection pane="topRight" activeCell="G2" sqref="G2"/>
+      <selection pane="bottomLeft" activeCell="A44" sqref="A44:XFD55"/>
+      <selection pane="bottomRight" activeCell="AT54" sqref="AT54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="15.1796875" defaultRowHeight="15" customHeight="1"/>
@@ -28177,11 +28222,11 @@
       <c r="B4" s="7" t="s">
         <v>998</v>
       </c>
-      <c r="C4" s="8" t="s">
-        <v>1001</v>
+      <c r="C4" s="9" t="s">
+        <v>1006</v>
       </c>
       <c r="D4" t="s">
-        <v>1162</v>
+        <v>1182</v>
       </c>
       <c r="E4" s="108">
         <v>2019</v>
@@ -28189,7 +28234,6 @@
       <c r="F4" s="108">
         <v>10</v>
       </c>
-      <c r="G4" s="108"/>
       <c r="H4" s="5"/>
       <c r="I4" s="3">
         <v>0</v>
@@ -28197,122 +28241,41 @@
       <c r="J4" s="3">
         <v>10</v>
       </c>
-      <c r="K4" s="5"/>
-      <c r="L4" s="5"/>
-      <c r="M4" s="5"/>
-      <c r="N4" s="5"/>
-      <c r="O4" s="5"/>
-      <c r="P4" s="5"/>
-      <c r="Q4" s="5"/>
-      <c r="R4" s="5"/>
-      <c r="S4" s="5"/>
-      <c r="T4" s="5"/>
-      <c r="U4" s="5"/>
-      <c r="V4" s="5"/>
-      <c r="W4" s="5"/>
-      <c r="X4" s="5"/>
-      <c r="Y4" s="5"/>
-      <c r="Z4" s="5"/>
-      <c r="AA4" s="5"/>
       <c r="AB4" s="5"/>
-      <c r="AC4" s="5"/>
-      <c r="AD4" s="5"/>
-      <c r="AE4" s="5"/>
-      <c r="AF4" s="5"/>
-      <c r="AG4" s="5"/>
-      <c r="AH4" s="11"/>
-      <c r="AI4" s="5"/>
-      <c r="AJ4" s="5"/>
-      <c r="AK4" s="5"/>
-      <c r="AL4" s="5"/>
-      <c r="AM4" s="5"/>
-      <c r="AN4" s="5"/>
-      <c r="AO4" s="5"/>
-      <c r="AP4" s="5"/>
-      <c r="AQ4" s="5"/>
-      <c r="AR4" s="5"/>
-      <c r="AS4" s="5"/>
-      <c r="AT4" s="11"/>
-      <c r="AU4" s="11"/>
-      <c r="AV4" s="11"/>
-      <c r="AW4" s="5"/>
-      <c r="AX4" s="5"/>
-      <c r="AY4" s="5"/>
-      <c r="AZ4" s="5"/>
-      <c r="BA4" s="5"/>
-      <c r="BB4" s="5"/>
+      <c r="AT4" s="199">
+        <v>4.5635149999999998</v>
+      </c>
+      <c r="AW4" s="199">
+        <v>0.45441199999999998</v>
+      </c>
+      <c r="AY4" s="203">
+        <f>AT4/AW4</f>
+        <v>10.042681531297589</v>
+      </c>
+      <c r="BB4" s="199">
+        <v>4.3089178037488356</v>
+      </c>
       <c r="BC4" s="197">
-        <v>-27.945</v>
-      </c>
-      <c r="BD4" s="5"/>
+        <v>-27.911000000000001</v>
+      </c>
       <c r="BE4">
-        <v>184911</v>
+        <v>184909</v>
       </c>
       <c r="BF4" s="3">
         <v>2019</v>
       </c>
       <c r="BG4">
-        <v>49.8</v>
+        <v>60.3</v>
       </c>
       <c r="BH4">
         <v>2.4</v>
       </c>
       <c r="BJ4">
-        <v>1.0587</v>
+        <v>1.0692999999999999</v>
       </c>
       <c r="BK4">
         <v>2.3999999999999998E-3</v>
       </c>
-      <c r="BL4" s="5"/>
-      <c r="BM4" s="5"/>
-      <c r="BN4" s="5"/>
-      <c r="BO4" s="5"/>
-      <c r="BP4" s="5"/>
-      <c r="BQ4" s="5"/>
-      <c r="BR4" s="5"/>
-      <c r="BS4" s="5"/>
-      <c r="BT4" s="5"/>
-      <c r="BU4" s="5"/>
-      <c r="BV4" s="5"/>
-      <c r="BW4" s="5"/>
-      <c r="BX4" s="5"/>
-      <c r="BY4" s="5"/>
-      <c r="BZ4" s="5"/>
-      <c r="CA4" s="5"/>
-      <c r="CB4" s="5"/>
-      <c r="CC4" s="5"/>
-      <c r="CD4" s="5"/>
-      <c r="CE4" s="5"/>
-      <c r="CF4" s="5"/>
-      <c r="CG4" s="5"/>
-      <c r="CH4" s="5"/>
-      <c r="CI4" s="5"/>
-      <c r="CJ4" s="5"/>
-      <c r="CK4" s="5"/>
-      <c r="CL4" s="5"/>
-      <c r="CM4" s="5"/>
-      <c r="CN4" s="5"/>
-      <c r="CO4" s="5"/>
-      <c r="CP4" s="5"/>
-      <c r="CQ4" s="5"/>
-      <c r="CR4" s="5"/>
-      <c r="CS4" s="5"/>
-      <c r="CT4" s="5"/>
-      <c r="CU4" s="5"/>
-      <c r="CV4" s="5"/>
-      <c r="CW4" s="5"/>
-      <c r="CX4" s="5"/>
-      <c r="CY4" s="5"/>
-      <c r="CZ4" s="5"/>
-      <c r="DA4" s="5"/>
-      <c r="DB4" s="5"/>
-      <c r="DC4" s="5"/>
-      <c r="DD4" s="5"/>
-      <c r="DF4" s="5"/>
-      <c r="DG4" s="5"/>
-      <c r="DH4" s="11"/>
-      <c r="DI4" s="5"/>
-      <c r="DJ4" s="5"/>
     </row>
     <row r="5" spans="1:114" ht="14.5">
       <c r="A5" s="3" t="s">
@@ -28321,11 +28284,11 @@
       <c r="B5" s="7" t="s">
         <v>998</v>
       </c>
-      <c r="C5" s="8" t="s">
-        <v>1001</v>
+      <c r="C5" s="9" t="s">
+        <v>1006</v>
       </c>
       <c r="D5" t="s">
-        <v>1163</v>
+        <v>1183</v>
       </c>
       <c r="E5" s="108">
         <v>2019</v>
@@ -28333,7 +28296,6 @@
       <c r="F5" s="108">
         <v>10</v>
       </c>
-      <c r="G5" s="108"/>
       <c r="H5" s="5"/>
       <c r="I5" s="3">
         <v>10</v>
@@ -28341,122 +28303,41 @@
       <c r="J5" s="3">
         <v>20</v>
       </c>
-      <c r="K5" s="5"/>
-      <c r="L5" s="5"/>
-      <c r="M5" s="5"/>
-      <c r="N5" s="5"/>
-      <c r="O5" s="5"/>
-      <c r="P5" s="5"/>
-      <c r="Q5" s="5"/>
-      <c r="R5" s="5"/>
-      <c r="S5" s="5"/>
-      <c r="T5" s="5"/>
-      <c r="U5" s="5"/>
-      <c r="V5" s="5"/>
-      <c r="W5" s="5"/>
-      <c r="X5" s="5"/>
-      <c r="Y5" s="5"/>
-      <c r="Z5" s="5"/>
-      <c r="AA5" s="5"/>
       <c r="AB5" s="5"/>
-      <c r="AC5" s="5"/>
-      <c r="AD5" s="5"/>
-      <c r="AE5" s="5"/>
-      <c r="AF5" s="5"/>
-      <c r="AG5" s="5"/>
-      <c r="AH5" s="11"/>
-      <c r="AI5" s="5"/>
-      <c r="AJ5" s="5"/>
-      <c r="AK5" s="5"/>
-      <c r="AL5" s="5"/>
-      <c r="AM5" s="5"/>
-      <c r="AN5" s="5"/>
-      <c r="AO5" s="5"/>
-      <c r="AP5" s="5"/>
-      <c r="AQ5" s="5"/>
-      <c r="AR5" s="5"/>
-      <c r="AS5" s="5"/>
-      <c r="AT5" s="11"/>
-      <c r="AU5" s="11"/>
-      <c r="AV5" s="11"/>
-      <c r="AW5" s="5"/>
-      <c r="AX5" s="5"/>
-      <c r="AY5" s="5"/>
-      <c r="AZ5" s="5"/>
-      <c r="BA5" s="5"/>
-      <c r="BB5" s="5"/>
+      <c r="AT5" s="199">
+        <v>2.2915760000000001</v>
+      </c>
+      <c r="AW5" s="199">
+        <v>0.27078600000000003</v>
+      </c>
+      <c r="AY5" s="203">
+        <f t="shared" ref="AY5:AY55" si="0">AT5/AW5</f>
+        <v>8.4626827088549632</v>
+      </c>
+      <c r="BB5" s="199">
+        <v>5.5988519722184593</v>
+      </c>
       <c r="BC5" s="197">
-        <v>-26.76</v>
-      </c>
-      <c r="BD5" s="5"/>
+        <v>-26.850999999999999</v>
+      </c>
       <c r="BE5">
-        <v>184912</v>
+        <v>184910</v>
       </c>
       <c r="BF5" s="3">
         <v>2019</v>
       </c>
       <c r="BG5">
-        <v>21.4</v>
+        <v>46.3</v>
       </c>
       <c r="BH5">
-        <v>2.2000000000000002</v>
+        <v>2.4</v>
       </c>
       <c r="BJ5">
-        <v>1.0301</v>
+        <v>1.0551999999999999</v>
       </c>
       <c r="BK5">
-        <v>2.2000000000000001E-3</v>
-      </c>
-      <c r="BL5" s="5"/>
-      <c r="BM5" s="5"/>
-      <c r="BN5" s="5"/>
-      <c r="BO5" s="5"/>
-      <c r="BP5" s="5"/>
-      <c r="BQ5" s="5"/>
-      <c r="BR5" s="5"/>
-      <c r="BS5" s="5"/>
-      <c r="BT5" s="5"/>
-      <c r="BU5" s="5"/>
-      <c r="BV5" s="5"/>
-      <c r="BW5" s="5"/>
-      <c r="BX5" s="5"/>
-      <c r="BY5" s="5"/>
-      <c r="BZ5" s="5"/>
-      <c r="CA5" s="5"/>
-      <c r="CB5" s="5"/>
-      <c r="CC5" s="5"/>
-      <c r="CD5" s="5"/>
-      <c r="CE5" s="5"/>
-      <c r="CF5" s="5"/>
-      <c r="CG5" s="5"/>
-      <c r="CH5" s="5"/>
-      <c r="CI5" s="5"/>
-      <c r="CJ5" s="5"/>
-      <c r="CK5" s="5"/>
-      <c r="CL5" s="5"/>
-      <c r="CM5" s="5"/>
-      <c r="CN5" s="5"/>
-      <c r="CO5" s="5"/>
-      <c r="CP5" s="5"/>
-      <c r="CQ5" s="5"/>
-      <c r="CR5" s="5"/>
-      <c r="CS5" s="5"/>
-      <c r="CT5" s="5"/>
-      <c r="CU5" s="5"/>
-      <c r="CV5" s="5"/>
-      <c r="CW5" s="5"/>
-      <c r="CX5" s="5"/>
-      <c r="CY5" s="5"/>
-      <c r="CZ5" s="5"/>
-      <c r="DA5" s="5"/>
-      <c r="DB5" s="5"/>
-      <c r="DC5" s="5"/>
-      <c r="DD5" s="5"/>
-      <c r="DF5" s="5"/>
-      <c r="DG5" s="5"/>
-      <c r="DH5" s="11"/>
-      <c r="DI5" s="5"/>
-      <c r="DJ5" s="5"/>
+        <v>2.3999999999999998E-3</v>
+      </c>
     </row>
     <row r="6" spans="1:114" ht="14.5">
       <c r="A6" s="3" t="s">
@@ -28465,11 +28346,11 @@
       <c r="B6" s="7" t="s">
         <v>998</v>
       </c>
-      <c r="C6" s="8" t="s">
-        <v>1001</v>
+      <c r="C6" s="9" t="s">
+        <v>1006</v>
       </c>
       <c r="D6" t="s">
-        <v>1164</v>
+        <v>1184</v>
       </c>
       <c r="E6" s="108">
         <v>2019</v>
@@ -28477,7 +28358,6 @@
       <c r="F6" s="108">
         <v>10</v>
       </c>
-      <c r="G6" s="108"/>
       <c r="H6" s="5"/>
       <c r="I6" s="3">
         <v>20</v>
@@ -28485,122 +28365,41 @@
       <c r="J6" s="3">
         <v>50</v>
       </c>
-      <c r="K6" s="5"/>
-      <c r="L6" s="5"/>
-      <c r="M6" s="5"/>
-      <c r="N6" s="5"/>
-      <c r="O6" s="5"/>
-      <c r="P6" s="5"/>
-      <c r="Q6" s="5"/>
-      <c r="R6" s="5"/>
-      <c r="S6" s="5"/>
-      <c r="T6" s="5"/>
-      <c r="U6" s="5"/>
-      <c r="V6" s="5"/>
-      <c r="W6" s="5"/>
-      <c r="X6" s="5"/>
-      <c r="Y6" s="5"/>
-      <c r="Z6" s="5"/>
-      <c r="AA6" s="5"/>
       <c r="AB6" s="5"/>
-      <c r="AC6" s="5"/>
-      <c r="AD6" s="5"/>
-      <c r="AE6" s="5"/>
-      <c r="AF6" s="5"/>
-      <c r="AG6" s="5"/>
-      <c r="AH6" s="11"/>
-      <c r="AI6" s="5"/>
-      <c r="AJ6" s="5"/>
-      <c r="AK6" s="5"/>
-      <c r="AL6" s="5"/>
-      <c r="AM6" s="5"/>
-      <c r="AN6" s="5"/>
-      <c r="AO6" s="5"/>
-      <c r="AP6" s="5"/>
-      <c r="AQ6" s="5"/>
-      <c r="AR6" s="5"/>
-      <c r="AS6" s="5"/>
-      <c r="AT6" s="11"/>
-      <c r="AU6" s="11"/>
-      <c r="AV6" s="11"/>
-      <c r="AW6" s="5"/>
-      <c r="AX6" s="5"/>
-      <c r="AY6" s="5"/>
-      <c r="AZ6" s="5"/>
-      <c r="BA6" s="5"/>
-      <c r="BB6" s="5"/>
+      <c r="AT6" s="199">
+        <v>1.0296369999999999</v>
+      </c>
+      <c r="AW6" s="199">
+        <v>0.142374</v>
+      </c>
+      <c r="AY6" s="203">
+        <f t="shared" si="0"/>
+        <v>7.2319173444589593</v>
+      </c>
+      <c r="BB6" s="199">
+        <v>5.7059275596410988</v>
+      </c>
       <c r="BC6" s="197">
-        <v>-26.103000000000002</v>
-      </c>
-      <c r="BD6" s="5"/>
+        <v>-26.140999999999998</v>
+      </c>
       <c r="BE6">
-        <v>184972</v>
+        <v>184970</v>
       </c>
       <c r="BF6" s="3">
         <v>2019</v>
       </c>
       <c r="BG6">
-        <v>3.11</v>
+        <v>-31.15</v>
       </c>
       <c r="BH6">
-        <v>2.95</v>
+        <v>1.72</v>
       </c>
       <c r="BJ6">
-        <v>1.0116000000000001</v>
+        <v>0.97709999999999997</v>
       </c>
       <c r="BK6">
-        <v>3.0000000000000001E-3</v>
-      </c>
-      <c r="BL6" s="5"/>
-      <c r="BM6" s="5"/>
-      <c r="BN6" s="5"/>
-      <c r="BO6" s="5"/>
-      <c r="BP6" s="5"/>
-      <c r="BQ6" s="5"/>
-      <c r="BR6" s="5"/>
-      <c r="BS6" s="5"/>
-      <c r="BT6" s="5"/>
-      <c r="BU6" s="5"/>
-      <c r="BV6" s="5"/>
-      <c r="BW6" s="5"/>
-      <c r="BX6" s="5"/>
-      <c r="BY6" s="5"/>
-      <c r="BZ6" s="5"/>
-      <c r="CA6" s="5"/>
-      <c r="CB6" s="5"/>
-      <c r="CC6" s="5"/>
-      <c r="CD6" s="5"/>
-      <c r="CE6" s="5"/>
-      <c r="CF6" s="5"/>
-      <c r="CG6" s="5"/>
-      <c r="CH6" s="5"/>
-      <c r="CI6" s="5"/>
-      <c r="CJ6" s="5"/>
-      <c r="CK6" s="5"/>
-      <c r="CL6" s="5"/>
-      <c r="CM6" s="5"/>
-      <c r="CN6" s="5"/>
-      <c r="CO6" s="5"/>
-      <c r="CP6" s="5"/>
-      <c r="CQ6" s="5"/>
-      <c r="CR6" s="5"/>
-      <c r="CS6" s="5"/>
-      <c r="CT6" s="5"/>
-      <c r="CU6" s="5"/>
-      <c r="CV6" s="5"/>
-      <c r="CW6" s="5"/>
-      <c r="CX6" s="5"/>
-      <c r="CY6" s="5"/>
-      <c r="CZ6" s="5"/>
-      <c r="DA6" s="5"/>
-      <c r="DB6" s="5"/>
-      <c r="DC6" s="5"/>
-      <c r="DD6" s="5"/>
-      <c r="DF6" s="5"/>
-      <c r="DG6" s="5"/>
-      <c r="DH6" s="11"/>
-      <c r="DI6" s="5"/>
-      <c r="DJ6" s="5"/>
+        <v>1.6999999999999999E-3</v>
+      </c>
     </row>
     <row r="7" spans="1:114" ht="14.5">
       <c r="A7" s="3" t="s">
@@ -28609,11 +28408,11 @@
       <c r="B7" s="7" t="s">
         <v>998</v>
       </c>
-      <c r="C7" s="8" t="s">
-        <v>1001</v>
+      <c r="C7" s="9" t="s">
+        <v>1006</v>
       </c>
       <c r="D7" t="s">
-        <v>1165</v>
+        <v>1185</v>
       </c>
       <c r="E7" s="108">
         <v>2019</v>
@@ -28621,7 +28420,6 @@
       <c r="F7" s="108">
         <v>10</v>
       </c>
-      <c r="G7" s="108"/>
       <c r="H7" s="5"/>
       <c r="I7" s="3">
         <v>50</v>
@@ -28629,122 +28427,41 @@
       <c r="J7" s="3">
         <v>100</v>
       </c>
-      <c r="K7" s="5"/>
-      <c r="L7" s="5"/>
-      <c r="M7" s="5"/>
-      <c r="N7" s="5"/>
-      <c r="O7" s="5"/>
-      <c r="P7" s="5"/>
-      <c r="Q7" s="5"/>
-      <c r="R7" s="5"/>
-      <c r="S7" s="5"/>
-      <c r="T7" s="5"/>
-      <c r="U7" s="5"/>
-      <c r="V7" s="5"/>
-      <c r="W7" s="5"/>
-      <c r="X7" s="5"/>
-      <c r="Y7" s="5"/>
-      <c r="Z7" s="5"/>
-      <c r="AA7" s="5"/>
       <c r="AB7" s="5"/>
-      <c r="AC7" s="5"/>
-      <c r="AD7" s="5"/>
-      <c r="AE7" s="5"/>
-      <c r="AF7" s="5"/>
-      <c r="AG7" s="5"/>
-      <c r="AH7" s="11"/>
-      <c r="AI7" s="5"/>
-      <c r="AJ7" s="5"/>
-      <c r="AK7" s="5"/>
-      <c r="AL7" s="5"/>
-      <c r="AM7" s="5"/>
-      <c r="AN7" s="5"/>
-      <c r="AO7" s="5"/>
-      <c r="AP7" s="5"/>
-      <c r="AQ7" s="5"/>
-      <c r="AR7" s="5"/>
-      <c r="AS7" s="5"/>
-      <c r="AT7" s="11"/>
-      <c r="AU7" s="11"/>
-      <c r="AV7" s="11"/>
-      <c r="AW7" s="5"/>
-      <c r="AX7" s="5"/>
-      <c r="AY7" s="5"/>
-      <c r="AZ7" s="5"/>
-      <c r="BA7" s="5"/>
-      <c r="BB7" s="5"/>
+      <c r="AT7" s="199">
+        <v>0.45483899999999999</v>
+      </c>
+      <c r="AW7" s="199">
+        <v>5.5835000000000003E-2</v>
+      </c>
+      <c r="AY7" s="203">
+        <f t="shared" si="0"/>
+        <v>8.1461269812841408</v>
+      </c>
+      <c r="BB7" s="199">
+        <v>6.3454108451235092</v>
+      </c>
       <c r="BC7" s="197">
-        <v>-25.568999999999999</v>
-      </c>
-      <c r="BD7" s="5"/>
+        <v>-26.193000000000001</v>
+      </c>
       <c r="BE7">
-        <v>184973</v>
+        <v>184971</v>
       </c>
       <c r="BF7" s="3">
         <v>2019</v>
       </c>
       <c r="BG7">
-        <v>-105.61</v>
+        <v>-73.040000000000006</v>
       </c>
       <c r="BH7">
-        <v>2.0699999999999998</v>
+        <v>1.95</v>
       </c>
       <c r="BJ7">
-        <v>0.90200000000000002</v>
+        <v>0.93479999999999996</v>
       </c>
       <c r="BK7">
-        <v>2.0999999999999999E-3</v>
-      </c>
-      <c r="BL7" s="5"/>
-      <c r="BM7" s="5"/>
-      <c r="BN7" s="5"/>
-      <c r="BO7" s="5"/>
-      <c r="BP7" s="5"/>
-      <c r="BQ7" s="5"/>
-      <c r="BR7" s="5"/>
-      <c r="BS7" s="5"/>
-      <c r="BT7" s="5"/>
-      <c r="BU7" s="5"/>
-      <c r="BV7" s="5"/>
-      <c r="BW7" s="5"/>
-      <c r="BX7" s="5"/>
-      <c r="BY7" s="5"/>
-      <c r="BZ7" s="5"/>
-      <c r="CA7" s="5"/>
-      <c r="CB7" s="5"/>
-      <c r="CC7" s="5"/>
-      <c r="CD7" s="5"/>
-      <c r="CE7" s="5"/>
-      <c r="CF7" s="5"/>
-      <c r="CG7" s="5"/>
-      <c r="CH7" s="5"/>
-      <c r="CI7" s="5"/>
-      <c r="CJ7" s="5"/>
-      <c r="CK7" s="5"/>
-      <c r="CL7" s="5"/>
-      <c r="CM7" s="5"/>
-      <c r="CN7" s="5"/>
-      <c r="CO7" s="5"/>
-      <c r="CP7" s="5"/>
-      <c r="CQ7" s="5"/>
-      <c r="CR7" s="5"/>
-      <c r="CS7" s="5"/>
-      <c r="CT7" s="5"/>
-      <c r="CU7" s="5"/>
-      <c r="CV7" s="5"/>
-      <c r="CW7" s="5"/>
-      <c r="CX7" s="5"/>
-      <c r="CY7" s="5"/>
-      <c r="CZ7" s="5"/>
-      <c r="DA7" s="5"/>
-      <c r="DB7" s="5"/>
-      <c r="DC7" s="5"/>
-      <c r="DD7" s="5"/>
-      <c r="DF7" s="5"/>
-      <c r="DG7" s="5"/>
-      <c r="DH7" s="11"/>
-      <c r="DI7" s="5"/>
-      <c r="DJ7" s="5"/>
+        <v>1.9E-3</v>
+      </c>
     </row>
     <row r="8" spans="1:114" ht="14.5">
       <c r="A8" s="3" t="s">
@@ -28754,10 +28471,10 @@
         <v>998</v>
       </c>
       <c r="C8" s="8" t="s">
-        <v>1002</v>
+        <v>1001</v>
       </c>
       <c r="D8" t="s">
-        <v>1166</v>
+        <v>1162</v>
       </c>
       <c r="E8" s="108">
         <v>2019</v>
@@ -28808,33 +28525,42 @@
       <c r="AQ8" s="5"/>
       <c r="AR8" s="5"/>
       <c r="AS8" s="5"/>
-      <c r="AT8" s="11"/>
+      <c r="AT8" s="199">
+        <v>3.6925050000000001</v>
+      </c>
       <c r="AU8" s="11"/>
       <c r="AV8" s="11"/>
-      <c r="AW8" s="5"/>
+      <c r="AW8" s="199">
+        <v>0.36652499999999999</v>
+      </c>
       <c r="AX8" s="5"/>
-      <c r="AY8" s="5"/>
+      <c r="AY8" s="203">
+        <f t="shared" si="0"/>
+        <v>10.074360548393699</v>
+      </c>
       <c r="AZ8" s="5"/>
       <c r="BA8" s="5"/>
-      <c r="BB8" s="5"/>
+      <c r="BB8" s="199">
+        <v>4.2144010898927675</v>
+      </c>
       <c r="BC8" s="197">
-        <v>-27.361999999999998</v>
+        <v>-27.945</v>
       </c>
       <c r="BD8" s="5"/>
       <c r="BE8">
-        <v>184915</v>
+        <v>184911</v>
       </c>
       <c r="BF8" s="3">
         <v>2019</v>
       </c>
       <c r="BG8">
-        <v>77.400000000000006</v>
+        <v>49.8</v>
       </c>
       <c r="BH8">
         <v>2.4</v>
       </c>
       <c r="BJ8">
-        <v>1.0866</v>
+        <v>1.0587</v>
       </c>
       <c r="BK8">
         <v>2.3999999999999998E-3</v>
@@ -28898,10 +28624,10 @@
         <v>998</v>
       </c>
       <c r="C9" s="8" t="s">
-        <v>1002</v>
+        <v>1001</v>
       </c>
       <c r="D9" t="s">
-        <v>1167</v>
+        <v>1163</v>
       </c>
       <c r="E9" s="108">
         <v>2019</v>
@@ -28909,6 +28635,7 @@
       <c r="F9" s="108">
         <v>10</v>
       </c>
+      <c r="G9" s="108"/>
       <c r="H9" s="5"/>
       <c r="I9" s="3">
         <v>10</v>
@@ -28916,28 +28643,131 @@
       <c r="J9" s="3">
         <v>20</v>
       </c>
+      <c r="K9" s="5"/>
+      <c r="L9" s="5"/>
+      <c r="M9" s="5"/>
+      <c r="N9" s="5"/>
+      <c r="O9" s="5"/>
+      <c r="P9" s="5"/>
+      <c r="Q9" s="5"/>
+      <c r="R9" s="5"/>
+      <c r="S9" s="5"/>
+      <c r="T9" s="5"/>
+      <c r="U9" s="5"/>
+      <c r="V9" s="5"/>
+      <c r="W9" s="5"/>
+      <c r="X9" s="5"/>
+      <c r="Y9" s="5"/>
+      <c r="Z9" s="5"/>
+      <c r="AA9" s="5"/>
       <c r="AB9" s="5"/>
+      <c r="AC9" s="5"/>
+      <c r="AD9" s="5"/>
+      <c r="AE9" s="5"/>
+      <c r="AF9" s="5"/>
+      <c r="AG9" s="5"/>
+      <c r="AH9" s="11"/>
+      <c r="AI9" s="5"/>
+      <c r="AJ9" s="5"/>
+      <c r="AK9" s="5"/>
+      <c r="AL9" s="5"/>
+      <c r="AM9" s="5"/>
+      <c r="AN9" s="5"/>
+      <c r="AO9" s="5"/>
+      <c r="AP9" s="5"/>
+      <c r="AQ9" s="5"/>
+      <c r="AR9" s="5"/>
+      <c r="AS9" s="5"/>
+      <c r="AT9" s="199">
+        <v>1.983508</v>
+      </c>
+      <c r="AU9" s="11"/>
+      <c r="AV9" s="11"/>
+      <c r="AW9" s="199">
+        <v>0.24499699999999999</v>
+      </c>
+      <c r="AX9" s="5"/>
+      <c r="AY9" s="203">
+        <f t="shared" si="0"/>
+        <v>8.0960501557161937</v>
+      </c>
+      <c r="AZ9" s="5"/>
+      <c r="BA9" s="5"/>
+      <c r="BB9" s="199">
+        <v>5.4836013007486084</v>
+      </c>
       <c r="BC9" s="197">
-        <v>-26.585999999999999</v>
-      </c>
+        <v>-26.76</v>
+      </c>
+      <c r="BD9" s="5"/>
       <c r="BE9">
-        <v>184916</v>
+        <v>184912</v>
       </c>
       <c r="BF9" s="3">
         <v>2019</v>
       </c>
       <c r="BG9">
-        <v>36.4</v>
+        <v>21.4</v>
       </c>
       <c r="BH9">
-        <v>2.4</v>
+        <v>2.2000000000000002</v>
       </c>
       <c r="BJ9">
-        <v>1.0451999999999999</v>
+        <v>1.0301</v>
       </c>
       <c r="BK9">
-        <v>2.3999999999999998E-3</v>
-      </c>
+        <v>2.2000000000000001E-3</v>
+      </c>
+      <c r="BL9" s="5"/>
+      <c r="BM9" s="5"/>
+      <c r="BN9" s="5"/>
+      <c r="BO9" s="5"/>
+      <c r="BP9" s="5"/>
+      <c r="BQ9" s="5"/>
+      <c r="BR9" s="5"/>
+      <c r="BS9" s="5"/>
+      <c r="BT9" s="5"/>
+      <c r="BU9" s="5"/>
+      <c r="BV9" s="5"/>
+      <c r="BW9" s="5"/>
+      <c r="BX9" s="5"/>
+      <c r="BY9" s="5"/>
+      <c r="BZ9" s="5"/>
+      <c r="CA9" s="5"/>
+      <c r="CB9" s="5"/>
+      <c r="CC9" s="5"/>
+      <c r="CD9" s="5"/>
+      <c r="CE9" s="5"/>
+      <c r="CF9" s="5"/>
+      <c r="CG9" s="5"/>
+      <c r="CH9" s="5"/>
+      <c r="CI9" s="5"/>
+      <c r="CJ9" s="5"/>
+      <c r="CK9" s="5"/>
+      <c r="CL9" s="5"/>
+      <c r="CM9" s="5"/>
+      <c r="CN9" s="5"/>
+      <c r="CO9" s="5"/>
+      <c r="CP9" s="5"/>
+      <c r="CQ9" s="5"/>
+      <c r="CR9" s="5"/>
+      <c r="CS9" s="5"/>
+      <c r="CT9" s="5"/>
+      <c r="CU9" s="5"/>
+      <c r="CV9" s="5"/>
+      <c r="CW9" s="5"/>
+      <c r="CX9" s="5"/>
+      <c r="CY9" s="5"/>
+      <c r="CZ9" s="5"/>
+      <c r="DA9" s="5"/>
+      <c r="DB9" s="5"/>
+      <c r="DC9" s="5"/>
+      <c r="DD9" s="5"/>
+      <c r="DF9" s="5"/>
+      <c r="DG9" s="5"/>
+      <c r="DH9" s="11"/>
+      <c r="DI9" s="5"/>
+      <c r="DJ9" s="5"/>
     </row>
     <row r="10" spans="1:114" ht="14.5">
       <c r="A10" s="3" t="s">
@@ -28947,10 +28777,10 @@
         <v>998</v>
       </c>
       <c r="C10" s="8" t="s">
-        <v>1002</v>
+        <v>1001</v>
       </c>
       <c r="D10" t="s">
-        <v>1168</v>
+        <v>1164</v>
       </c>
       <c r="E10" s="108">
         <v>2019</v>
@@ -28958,6 +28788,7 @@
       <c r="F10" s="108">
         <v>10</v>
       </c>
+      <c r="G10" s="108"/>
       <c r="H10" s="5"/>
       <c r="I10" s="3">
         <v>20</v>
@@ -28965,28 +28796,131 @@
       <c r="J10" s="3">
         <v>50</v>
       </c>
+      <c r="K10" s="5"/>
+      <c r="L10" s="5"/>
+      <c r="M10" s="5"/>
+      <c r="N10" s="5"/>
+      <c r="O10" s="5"/>
+      <c r="P10" s="5"/>
+      <c r="Q10" s="5"/>
+      <c r="R10" s="5"/>
+      <c r="S10" s="5"/>
+      <c r="T10" s="5"/>
+      <c r="U10" s="5"/>
+      <c r="V10" s="5"/>
+      <c r="W10" s="5"/>
+      <c r="X10" s="5"/>
+      <c r="Y10" s="5"/>
+      <c r="Z10" s="5"/>
+      <c r="AA10" s="5"/>
       <c r="AB10" s="5"/>
+      <c r="AC10" s="5"/>
+      <c r="AD10" s="5"/>
+      <c r="AE10" s="5"/>
+      <c r="AF10" s="5"/>
+      <c r="AG10" s="5"/>
+      <c r="AH10" s="11"/>
+      <c r="AI10" s="5"/>
+      <c r="AJ10" s="5"/>
+      <c r="AK10" s="5"/>
+      <c r="AL10" s="5"/>
+      <c r="AM10" s="5"/>
+      <c r="AN10" s="5"/>
+      <c r="AO10" s="5"/>
+      <c r="AP10" s="5"/>
+      <c r="AQ10" s="5"/>
+      <c r="AR10" s="5"/>
+      <c r="AS10" s="5"/>
+      <c r="AT10" s="199">
+        <v>0.899837</v>
+      </c>
+      <c r="AU10" s="11"/>
+      <c r="AV10" s="11"/>
+      <c r="AW10" s="199">
+        <v>0.13</v>
+      </c>
+      <c r="AX10" s="5"/>
+      <c r="AY10" s="203">
+        <f t="shared" si="0"/>
+        <v>6.9218230769230766</v>
+      </c>
+      <c r="AZ10" s="5"/>
+      <c r="BA10" s="5"/>
+      <c r="BB10" s="199">
+        <v>5.6288683928030459</v>
+      </c>
       <c r="BC10" s="197">
-        <v>-25.87</v>
-      </c>
+        <v>-26.103000000000002</v>
+      </c>
+      <c r="BD10" s="5"/>
       <c r="BE10">
-        <v>184976</v>
+        <v>184972</v>
       </c>
       <c r="BF10" s="3">
         <v>2019</v>
       </c>
       <c r="BG10">
-        <v>-63.92</v>
+        <v>3.11</v>
       </c>
       <c r="BH10">
-        <v>2.06</v>
+        <v>2.95</v>
       </c>
       <c r="BJ10">
-        <v>0.94399999999999995</v>
+        <v>1.0116000000000001</v>
       </c>
       <c r="BK10">
-        <v>2.0999999999999999E-3</v>
-      </c>
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="BL10" s="5"/>
+      <c r="BM10" s="5"/>
+      <c r="BN10" s="5"/>
+      <c r="BO10" s="5"/>
+      <c r="BP10" s="5"/>
+      <c r="BQ10" s="5"/>
+      <c r="BR10" s="5"/>
+      <c r="BS10" s="5"/>
+      <c r="BT10" s="5"/>
+      <c r="BU10" s="5"/>
+      <c r="BV10" s="5"/>
+      <c r="BW10" s="5"/>
+      <c r="BX10" s="5"/>
+      <c r="BY10" s="5"/>
+      <c r="BZ10" s="5"/>
+      <c r="CA10" s="5"/>
+      <c r="CB10" s="5"/>
+      <c r="CC10" s="5"/>
+      <c r="CD10" s="5"/>
+      <c r="CE10" s="5"/>
+      <c r="CF10" s="5"/>
+      <c r="CG10" s="5"/>
+      <c r="CH10" s="5"/>
+      <c r="CI10" s="5"/>
+      <c r="CJ10" s="5"/>
+      <c r="CK10" s="5"/>
+      <c r="CL10" s="5"/>
+      <c r="CM10" s="5"/>
+      <c r="CN10" s="5"/>
+      <c r="CO10" s="5"/>
+      <c r="CP10" s="5"/>
+      <c r="CQ10" s="5"/>
+      <c r="CR10" s="5"/>
+      <c r="CS10" s="5"/>
+      <c r="CT10" s="5"/>
+      <c r="CU10" s="5"/>
+      <c r="CV10" s="5"/>
+      <c r="CW10" s="5"/>
+      <c r="CX10" s="5"/>
+      <c r="CY10" s="5"/>
+      <c r="CZ10" s="5"/>
+      <c r="DA10" s="5"/>
+      <c r="DB10" s="5"/>
+      <c r="DC10" s="5"/>
+      <c r="DD10" s="5"/>
+      <c r="DF10" s="5"/>
+      <c r="DG10" s="5"/>
+      <c r="DH10" s="11"/>
+      <c r="DI10" s="5"/>
+      <c r="DJ10" s="5"/>
     </row>
     <row r="11" spans="1:114" ht="14.5">
       <c r="A11" s="3" t="s">
@@ -28996,10 +28930,10 @@
         <v>998</v>
       </c>
       <c r="C11" s="8" t="s">
-        <v>1002</v>
+        <v>1001</v>
       </c>
       <c r="D11" t="s">
-        <v>1169</v>
+        <v>1165</v>
       </c>
       <c r="E11" s="108">
         <v>2019</v>
@@ -29007,6 +28941,7 @@
       <c r="F11" s="108">
         <v>10</v>
       </c>
+      <c r="G11" s="108"/>
       <c r="H11" s="5"/>
       <c r="I11" s="3">
         <v>50</v>
@@ -29014,28 +28949,131 @@
       <c r="J11" s="3">
         <v>100</v>
       </c>
+      <c r="K11" s="5"/>
+      <c r="L11" s="5"/>
+      <c r="M11" s="5"/>
+      <c r="N11" s="5"/>
+      <c r="O11" s="5"/>
+      <c r="P11" s="5"/>
+      <c r="Q11" s="5"/>
+      <c r="R11" s="5"/>
+      <c r="S11" s="5"/>
+      <c r="T11" s="5"/>
+      <c r="U11" s="5"/>
+      <c r="V11" s="5"/>
+      <c r="W11" s="5"/>
+      <c r="X11" s="5"/>
+      <c r="Y11" s="5"/>
+      <c r="Z11" s="5"/>
+      <c r="AA11" s="5"/>
       <c r="AB11" s="5"/>
+      <c r="AC11" s="5"/>
+      <c r="AD11" s="5"/>
+      <c r="AE11" s="5"/>
+      <c r="AF11" s="5"/>
+      <c r="AG11" s="5"/>
+      <c r="AH11" s="11"/>
+      <c r="AI11" s="5"/>
+      <c r="AJ11" s="5"/>
+      <c r="AK11" s="5"/>
+      <c r="AL11" s="5"/>
+      <c r="AM11" s="5"/>
+      <c r="AN11" s="5"/>
+      <c r="AO11" s="5"/>
+      <c r="AP11" s="5"/>
+      <c r="AQ11" s="5"/>
+      <c r="AR11" s="5"/>
+      <c r="AS11" s="5"/>
+      <c r="AT11" s="199">
+        <v>0.16981399999999999</v>
+      </c>
+      <c r="AU11" s="11"/>
+      <c r="AV11" s="11"/>
+      <c r="AW11" s="199">
+        <v>2.9905000000000001E-2</v>
+      </c>
+      <c r="AX11" s="5"/>
+      <c r="AY11" s="203">
+        <f t="shared" si="0"/>
+        <v>5.6784484199966556</v>
+      </c>
+      <c r="AZ11" s="5"/>
+      <c r="BA11" s="5"/>
+      <c r="BB11" s="199">
+        <v>7.0885524321895952</v>
+      </c>
       <c r="BC11" s="197">
-        <v>-25.381</v>
-      </c>
+        <v>-25.568999999999999</v>
+      </c>
+      <c r="BD11" s="5"/>
       <c r="BE11">
-        <v>184977</v>
+        <v>184973</v>
       </c>
       <c r="BF11" s="3">
         <v>2019</v>
       </c>
       <c r="BG11">
-        <v>-163.92</v>
+        <v>-105.61</v>
       </c>
       <c r="BH11">
-        <v>1.66</v>
+        <v>2.0699999999999998</v>
       </c>
       <c r="BJ11">
-        <v>0.84319999999999995</v>
+        <v>0.90200000000000002</v>
       </c>
       <c r="BK11">
-        <v>1.6999999999999999E-3</v>
-      </c>
+        <v>2.0999999999999999E-3</v>
+      </c>
+      <c r="BL11" s="5"/>
+      <c r="BM11" s="5"/>
+      <c r="BN11" s="5"/>
+      <c r="BO11" s="5"/>
+      <c r="BP11" s="5"/>
+      <c r="BQ11" s="5"/>
+      <c r="BR11" s="5"/>
+      <c r="BS11" s="5"/>
+      <c r="BT11" s="5"/>
+      <c r="BU11" s="5"/>
+      <c r="BV11" s="5"/>
+      <c r="BW11" s="5"/>
+      <c r="BX11" s="5"/>
+      <c r="BY11" s="5"/>
+      <c r="BZ11" s="5"/>
+      <c r="CA11" s="5"/>
+      <c r="CB11" s="5"/>
+      <c r="CC11" s="5"/>
+      <c r="CD11" s="5"/>
+      <c r="CE11" s="5"/>
+      <c r="CF11" s="5"/>
+      <c r="CG11" s="5"/>
+      <c r="CH11" s="5"/>
+      <c r="CI11" s="5"/>
+      <c r="CJ11" s="5"/>
+      <c r="CK11" s="5"/>
+      <c r="CL11" s="5"/>
+      <c r="CM11" s="5"/>
+      <c r="CN11" s="5"/>
+      <c r="CO11" s="5"/>
+      <c r="CP11" s="5"/>
+      <c r="CQ11" s="5"/>
+      <c r="CR11" s="5"/>
+      <c r="CS11" s="5"/>
+      <c r="CT11" s="5"/>
+      <c r="CU11" s="5"/>
+      <c r="CV11" s="5"/>
+      <c r="CW11" s="5"/>
+      <c r="CX11" s="5"/>
+      <c r="CY11" s="5"/>
+      <c r="CZ11" s="5"/>
+      <c r="DA11" s="5"/>
+      <c r="DB11" s="5"/>
+      <c r="DC11" s="5"/>
+      <c r="DD11" s="5"/>
+      <c r="DF11" s="5"/>
+      <c r="DG11" s="5"/>
+      <c r="DH11" s="11"/>
+      <c r="DI11" s="5"/>
+      <c r="DJ11" s="5"/>
     </row>
     <row r="12" spans="1:114" ht="14.5">
       <c r="A12" s="3" t="s">
@@ -29045,10 +29083,10 @@
         <v>998</v>
       </c>
       <c r="C12" s="9" t="s">
-        <v>1003</v>
+        <v>1007</v>
       </c>
       <c r="D12" t="s">
-        <v>1170</v>
+        <v>1186</v>
       </c>
       <c r="E12" s="108">
         <v>2019</v>
@@ -29064,26 +29102,39 @@
         <v>10</v>
       </c>
       <c r="AB12" s="5"/>
+      <c r="AT12" s="199">
+        <v>5.3140939999999999</v>
+      </c>
+      <c r="AW12" s="199">
+        <v>0.464254</v>
+      </c>
+      <c r="AY12" s="203">
+        <f t="shared" si="0"/>
+        <v>11.446522808634928</v>
+      </c>
+      <c r="BB12" s="199">
+        <v>3.418275004389804</v>
+      </c>
       <c r="BC12" s="197">
-        <v>-27.841999999999999</v>
+        <v>-28.003</v>
       </c>
       <c r="BE12">
-        <v>184919</v>
+        <v>184913</v>
       </c>
       <c r="BF12" s="3">
         <v>2019</v>
       </c>
       <c r="BG12">
-        <v>65.2</v>
+        <v>45.7</v>
       </c>
       <c r="BH12">
-        <v>2.2999999999999998</v>
+        <v>2.4</v>
       </c>
       <c r="BJ12">
-        <v>1.0742</v>
+        <v>1.0545</v>
       </c>
       <c r="BK12">
-        <v>2.3E-3</v>
+        <v>2.3999999999999998E-3</v>
       </c>
     </row>
     <row r="13" spans="1:114" ht="14.5">
@@ -29094,10 +29145,10 @@
         <v>998</v>
       </c>
       <c r="C13" s="9" t="s">
-        <v>1003</v>
+        <v>1007</v>
       </c>
       <c r="D13" t="s">
-        <v>1171</v>
+        <v>1187</v>
       </c>
       <c r="E13" s="108">
         <v>2019</v>
@@ -29113,26 +29164,39 @@
         <v>20</v>
       </c>
       <c r="AB13" s="5"/>
+      <c r="AT13" s="199">
+        <v>1.962961</v>
+      </c>
+      <c r="AW13" s="199">
+        <v>0.22409399999999999</v>
+      </c>
+      <c r="AY13" s="203">
+        <f t="shared" si="0"/>
+        <v>8.7595428704025995</v>
+      </c>
+      <c r="BB13" s="199">
+        <v>4.9983857554782389</v>
+      </c>
       <c r="BC13" s="197">
-        <v>-26.21</v>
+        <v>-27.082999999999998</v>
       </c>
       <c r="BE13">
-        <v>184920</v>
+        <v>184914</v>
       </c>
       <c r="BF13" s="3">
         <v>2019</v>
       </c>
       <c r="BG13">
-        <v>24.1</v>
+        <v>45.5</v>
       </c>
       <c r="BH13">
-        <v>2.2000000000000002</v>
+        <v>2.2999999999999998</v>
       </c>
       <c r="BJ13">
-        <v>1.0327999999999999</v>
+        <v>1.0544</v>
       </c>
       <c r="BK13">
-        <v>2.2000000000000001E-3</v>
+        <v>2.3E-3</v>
       </c>
     </row>
     <row r="14" spans="1:114" ht="14.5">
@@ -29143,10 +29207,10 @@
         <v>998</v>
       </c>
       <c r="C14" s="9" t="s">
-        <v>1003</v>
+        <v>1007</v>
       </c>
       <c r="D14" t="s">
-        <v>1172</v>
+        <v>1188</v>
       </c>
       <c r="E14" s="108">
         <v>2019</v>
@@ -29162,26 +29226,39 @@
         <v>50</v>
       </c>
       <c r="AB14" s="5"/>
+      <c r="AT14" s="199">
+        <v>0.83533100000000005</v>
+      </c>
+      <c r="AW14" s="199">
+        <v>0.10556500000000001</v>
+      </c>
+      <c r="AY14" s="203">
+        <f t="shared" si="0"/>
+        <v>7.9129541041064746</v>
+      </c>
+      <c r="BB14" s="199">
+        <v>5.9918357870185046</v>
+      </c>
       <c r="BC14" s="197">
-        <v>-25.363</v>
+        <v>-25.879000000000001</v>
       </c>
       <c r="BE14">
-        <v>184980</v>
+        <v>184974</v>
       </c>
       <c r="BF14" s="3">
         <v>2019</v>
       </c>
       <c r="BG14">
-        <v>-32.159999999999997</v>
+        <v>-40.71</v>
       </c>
       <c r="BH14">
-        <v>1.93</v>
+        <v>2.09</v>
       </c>
       <c r="BJ14">
-        <v>0.97609999999999997</v>
+        <v>0.96750000000000003</v>
       </c>
       <c r="BK14">
-        <v>1.9E-3</v>
+        <v>2.0999999999999999E-3</v>
       </c>
     </row>
     <row r="15" spans="1:114" ht="14.5">
@@ -29192,10 +29269,10 @@
         <v>998</v>
       </c>
       <c r="C15" s="9" t="s">
-        <v>1003</v>
+        <v>1007</v>
       </c>
       <c r="D15" t="s">
-        <v>1173</v>
+        <v>1189</v>
       </c>
       <c r="E15" s="108">
         <v>2019</v>
@@ -29211,26 +29288,39 @@
         <v>100</v>
       </c>
       <c r="AB15" s="5"/>
+      <c r="AT15" s="199">
+        <v>0.37819000000000003</v>
+      </c>
+      <c r="AW15" s="199">
+        <v>5.9408000000000002E-2</v>
+      </c>
+      <c r="AY15" s="203">
+        <f t="shared" si="0"/>
+        <v>6.3659776461082682</v>
+      </c>
+      <c r="BB15" s="199">
+        <v>6.6862711179008052</v>
+      </c>
       <c r="BC15" s="197">
-        <v>-25.599</v>
+        <v>-25.689</v>
       </c>
       <c r="BE15">
-        <v>184981</v>
+        <v>184975</v>
       </c>
       <c r="BF15" s="3">
         <v>2019</v>
       </c>
       <c r="BG15">
-        <v>-178.58</v>
+        <v>-146.65</v>
       </c>
       <c r="BH15">
-        <v>1.84</v>
+        <v>1.9</v>
       </c>
       <c r="BJ15">
-        <v>0.82840000000000003</v>
+        <v>0.86060000000000003</v>
       </c>
       <c r="BK15">
-        <v>1.8E-3</v>
+        <v>1.9E-3</v>
       </c>
     </row>
     <row r="16" spans="1:114" ht="14.5">
@@ -29240,11 +29330,11 @@
       <c r="B16" s="7" t="s">
         <v>998</v>
       </c>
-      <c r="C16" s="9" t="s">
-        <v>1004</v>
+      <c r="C16" s="8" t="s">
+        <v>1002</v>
       </c>
       <c r="D16" t="s">
-        <v>1174</v>
+        <v>1166</v>
       </c>
       <c r="E16" s="108">
         <v>2019</v>
@@ -29252,6 +29342,7 @@
       <c r="F16" s="108">
         <v>10</v>
       </c>
+      <c r="G16" s="108"/>
       <c r="H16" s="5"/>
       <c r="I16" s="3">
         <v>0</v>
@@ -29259,28 +29350,131 @@
       <c r="J16" s="3">
         <v>10</v>
       </c>
+      <c r="K16" s="5"/>
+      <c r="L16" s="5"/>
+      <c r="M16" s="5"/>
+      <c r="N16" s="5"/>
+      <c r="O16" s="5"/>
+      <c r="P16" s="5"/>
+      <c r="Q16" s="5"/>
+      <c r="R16" s="5"/>
+      <c r="S16" s="5"/>
+      <c r="T16" s="5"/>
+      <c r="U16" s="5"/>
+      <c r="V16" s="5"/>
+      <c r="W16" s="5"/>
+      <c r="X16" s="5"/>
+      <c r="Y16" s="5"/>
+      <c r="Z16" s="5"/>
+      <c r="AA16" s="5"/>
       <c r="AB16" s="5"/>
+      <c r="AC16" s="5"/>
+      <c r="AD16" s="5"/>
+      <c r="AE16" s="5"/>
+      <c r="AF16" s="5"/>
+      <c r="AG16" s="5"/>
+      <c r="AH16" s="11"/>
+      <c r="AI16" s="5"/>
+      <c r="AJ16" s="5"/>
+      <c r="AK16" s="5"/>
+      <c r="AL16" s="5"/>
+      <c r="AM16" s="5"/>
+      <c r="AN16" s="5"/>
+      <c r="AO16" s="5"/>
+      <c r="AP16" s="5"/>
+      <c r="AQ16" s="5"/>
+      <c r="AR16" s="5"/>
+      <c r="AS16" s="5"/>
+      <c r="AT16" s="199">
+        <v>2.5460449999999999</v>
+      </c>
+      <c r="AU16" s="11"/>
+      <c r="AV16" s="11"/>
+      <c r="AW16" s="199">
+        <v>0.29676000000000002</v>
+      </c>
+      <c r="AX16" s="5"/>
+      <c r="AY16" s="203">
+        <f t="shared" si="0"/>
+        <v>8.5794749966302728</v>
+      </c>
+      <c r="AZ16" s="5"/>
+      <c r="BA16" s="5"/>
+      <c r="BB16" s="199">
+        <v>4.9602765875000996</v>
+      </c>
       <c r="BC16" s="197">
-        <v>-28.821000000000002</v>
-      </c>
+        <v>-27.361999999999998</v>
+      </c>
+      <c r="BD16" s="5"/>
       <c r="BE16">
-        <v>184923</v>
+        <v>184915</v>
       </c>
       <c r="BF16" s="3">
         <v>2019</v>
       </c>
       <c r="BG16">
-        <v>31.5</v>
+        <v>77.400000000000006</v>
       </c>
       <c r="BH16">
         <v>2.4</v>
       </c>
       <c r="BJ16">
-        <v>1.0403</v>
+        <v>1.0866</v>
       </c>
       <c r="BK16">
         <v>2.3999999999999998E-3</v>
       </c>
+      <c r="BL16" s="5"/>
+      <c r="BM16" s="5"/>
+      <c r="BN16" s="5"/>
+      <c r="BO16" s="5"/>
+      <c r="BP16" s="5"/>
+      <c r="BQ16" s="5"/>
+      <c r="BR16" s="5"/>
+      <c r="BS16" s="5"/>
+      <c r="BT16" s="5"/>
+      <c r="BU16" s="5"/>
+      <c r="BV16" s="5"/>
+      <c r="BW16" s="5"/>
+      <c r="BX16" s="5"/>
+      <c r="BY16" s="5"/>
+      <c r="BZ16" s="5"/>
+      <c r="CA16" s="5"/>
+      <c r="CB16" s="5"/>
+      <c r="CC16" s="5"/>
+      <c r="CD16" s="5"/>
+      <c r="CE16" s="5"/>
+      <c r="CF16" s="5"/>
+      <c r="CG16" s="5"/>
+      <c r="CH16" s="5"/>
+      <c r="CI16" s="5"/>
+      <c r="CJ16" s="5"/>
+      <c r="CK16" s="5"/>
+      <c r="CL16" s="5"/>
+      <c r="CM16" s="5"/>
+      <c r="CN16" s="5"/>
+      <c r="CO16" s="5"/>
+      <c r="CP16" s="5"/>
+      <c r="CQ16" s="5"/>
+      <c r="CR16" s="5"/>
+      <c r="CS16" s="5"/>
+      <c r="CT16" s="5"/>
+      <c r="CU16" s="5"/>
+      <c r="CV16" s="5"/>
+      <c r="CW16" s="5"/>
+      <c r="CX16" s="5"/>
+      <c r="CY16" s="5"/>
+      <c r="CZ16" s="5"/>
+      <c r="DA16" s="5"/>
+      <c r="DB16" s="5"/>
+      <c r="DC16" s="5"/>
+      <c r="DD16" s="5"/>
+      <c r="DF16" s="5"/>
+      <c r="DG16" s="5"/>
+      <c r="DH16" s="11"/>
+      <c r="DI16" s="5"/>
+      <c r="DJ16" s="5"/>
     </row>
     <row r="17" spans="1:63" ht="14.5">
       <c r="A17" s="3" t="s">
@@ -29289,11 +29483,11 @@
       <c r="B17" s="7" t="s">
         <v>998</v>
       </c>
-      <c r="C17" s="9" t="s">
-        <v>1004</v>
+      <c r="C17" s="8" t="s">
+        <v>1002</v>
       </c>
       <c r="D17" t="s">
-        <v>1175</v>
+        <v>1167</v>
       </c>
       <c r="E17" s="108">
         <v>2019</v>
@@ -29309,26 +29503,39 @@
         <v>20</v>
       </c>
       <c r="AB17" s="5"/>
+      <c r="AT17" s="199">
+        <v>1.4731529999999999</v>
+      </c>
+      <c r="AW17" s="199">
+        <v>0.196602</v>
+      </c>
+      <c r="AY17" s="203">
+        <f t="shared" si="0"/>
+        <v>7.4930722983489479</v>
+      </c>
+      <c r="BB17" s="199">
+        <v>5.6511358582067244</v>
+      </c>
       <c r="BC17" s="197">
-        <v>-27.128</v>
+        <v>-26.585999999999999</v>
       </c>
       <c r="BE17">
-        <v>184924</v>
+        <v>184916</v>
       </c>
       <c r="BF17" s="3">
         <v>2019</v>
       </c>
       <c r="BG17">
-        <v>8.6</v>
+        <v>36.4</v>
       </c>
       <c r="BH17">
-        <v>2.2999999999999998</v>
+        <v>2.4</v>
       </c>
       <c r="BJ17">
-        <v>1.0172000000000001</v>
+        <v>1.0451999999999999</v>
       </c>
       <c r="BK17">
-        <v>2.3E-3</v>
+        <v>2.3999999999999998E-3</v>
       </c>
     </row>
     <row r="18" spans="1:63" ht="14.5">
@@ -29338,11 +29545,11 @@
       <c r="B18" s="7" t="s">
         <v>998</v>
       </c>
-      <c r="C18" s="9" t="s">
-        <v>1004</v>
+      <c r="C18" s="8" t="s">
+        <v>1002</v>
       </c>
       <c r="D18" t="s">
-        <v>1176</v>
+        <v>1168</v>
       </c>
       <c r="E18" s="108">
         <v>2019</v>
@@ -29358,26 +29565,39 @@
         <v>50</v>
       </c>
       <c r="AB18" s="5"/>
+      <c r="AT18" s="199">
+        <v>0.67079999999999995</v>
+      </c>
+      <c r="AW18" s="199">
+        <v>8.9260999999999993E-2</v>
+      </c>
+      <c r="AY18" s="203">
+        <f t="shared" si="0"/>
+        <v>7.5150401631171508</v>
+      </c>
+      <c r="BB18" s="199">
+        <v>6.841722316601178</v>
+      </c>
       <c r="BC18" s="197">
-        <v>-26.471</v>
+        <v>-25.87</v>
       </c>
       <c r="BE18">
-        <v>184984</v>
+        <v>184976</v>
       </c>
       <c r="BF18" s="3">
         <v>2019</v>
       </c>
       <c r="BG18">
-        <v>-55.07</v>
+        <v>-63.92</v>
       </c>
       <c r="BH18">
-        <v>1.98</v>
+        <v>2.06</v>
       </c>
       <c r="BJ18">
-        <v>0.95299999999999996</v>
+        <v>0.94399999999999995</v>
       </c>
       <c r="BK18">
-        <v>2E-3</v>
+        <v>2.0999999999999999E-3</v>
       </c>
     </row>
     <row r="19" spans="1:63" ht="14.5">
@@ -29387,11 +29607,11 @@
       <c r="B19" s="7" t="s">
         <v>998</v>
       </c>
-      <c r="C19" s="9" t="s">
-        <v>1004</v>
+      <c r="C19" s="8" t="s">
+        <v>1002</v>
       </c>
       <c r="D19" t="s">
-        <v>1177</v>
+        <v>1169</v>
       </c>
       <c r="E19" s="108">
         <v>2019</v>
@@ -29407,26 +29627,39 @@
         <v>100</v>
       </c>
       <c r="AB19" s="5"/>
+      <c r="AT19" s="199">
+        <v>0.38315500000000002</v>
+      </c>
+      <c r="AW19" s="199">
+        <v>6.8465999999999999E-2</v>
+      </c>
+      <c r="AY19" s="203">
+        <f t="shared" si="0"/>
+        <v>5.5962813659334563</v>
+      </c>
+      <c r="BB19" s="199">
+        <v>6.6363362467814202</v>
+      </c>
       <c r="BC19" s="197">
-        <v>-26.140999999999998</v>
+        <v>-25.381</v>
       </c>
       <c r="BE19">
-        <v>184985</v>
+        <v>184977</v>
       </c>
       <c r="BF19" s="3">
         <v>2019</v>
       </c>
       <c r="BG19">
-        <v>-120.8</v>
+        <v>-163.92</v>
       </c>
       <c r="BH19">
-        <v>2.04</v>
+        <v>1.66</v>
       </c>
       <c r="BJ19">
-        <v>0.88670000000000004</v>
+        <v>0.84319999999999995</v>
       </c>
       <c r="BK19">
-        <v>2E-3</v>
+        <v>1.6999999999999999E-3</v>
       </c>
     </row>
     <row r="20" spans="1:63" ht="14.5">
@@ -29437,10 +29670,10 @@
         <v>998</v>
       </c>
       <c r="C20" s="9" t="s">
-        <v>1005</v>
+        <v>1008</v>
       </c>
       <c r="D20" t="s">
-        <v>1178</v>
+        <v>1190</v>
       </c>
       <c r="E20" s="108">
         <v>2019</v>
@@ -29456,23 +29689,36 @@
         <v>10</v>
       </c>
       <c r="AB20" s="5"/>
+      <c r="AT20" s="199">
+        <v>4.2657389999999999</v>
+      </c>
+      <c r="AW20" s="199">
+        <v>0.39503500000000003</v>
+      </c>
+      <c r="AY20" s="203">
+        <f t="shared" si="0"/>
+        <v>10.798382421810725</v>
+      </c>
+      <c r="BB20" s="199">
+        <v>3.910769050257584</v>
+      </c>
       <c r="BC20" s="197">
-        <v>-28.004000000000001</v>
+        <v>-27.94</v>
       </c>
       <c r="BE20">
-        <v>184927</v>
+        <v>184917</v>
       </c>
       <c r="BF20" s="3">
         <v>2019</v>
       </c>
       <c r="BG20">
-        <v>70.3</v>
+        <v>62.9</v>
       </c>
       <c r="BH20">
         <v>2.4</v>
       </c>
       <c r="BJ20">
-        <v>1.0793999999999999</v>
+        <v>1.0720000000000001</v>
       </c>
       <c r="BK20">
         <v>2.3999999999999998E-3</v>
@@ -29486,10 +29732,10 @@
         <v>998</v>
       </c>
       <c r="C21" s="9" t="s">
-        <v>1005</v>
+        <v>1008</v>
       </c>
       <c r="D21" t="s">
-        <v>1179</v>
+        <v>1191</v>
       </c>
       <c r="E21" s="108">
         <v>2019</v>
@@ -29505,26 +29751,39 @@
         <v>20</v>
       </c>
       <c r="AB21" s="5"/>
+      <c r="AT21" s="199">
+        <v>2.70608</v>
+      </c>
+      <c r="AW21" s="199">
+        <v>0.30522199999999999</v>
+      </c>
+      <c r="AY21" s="203">
+        <f t="shared" si="0"/>
+        <v>8.8659402009029495</v>
+      </c>
+      <c r="BB21" s="199">
+        <v>5.4081614457411753</v>
+      </c>
       <c r="BC21" s="197">
-        <v>-26.936</v>
+        <v>-27.045999999999999</v>
       </c>
       <c r="BE21">
-        <v>184928</v>
+        <v>184918</v>
       </c>
       <c r="BF21" s="3">
         <v>2019</v>
       </c>
       <c r="BG21">
-        <v>85.2</v>
+        <v>69.900000000000006</v>
       </c>
       <c r="BH21">
-        <v>2.4</v>
+        <v>2.2999999999999998</v>
       </c>
       <c r="BJ21">
-        <v>1.0945</v>
+        <v>1.079</v>
       </c>
       <c r="BK21">
-        <v>2.3999999999999998E-3</v>
+        <v>2.3E-3</v>
       </c>
     </row>
     <row r="22" spans="1:63" ht="14.5">
@@ -29535,10 +29794,10 @@
         <v>998</v>
       </c>
       <c r="C22" s="9" t="s">
-        <v>1005</v>
+        <v>1008</v>
       </c>
       <c r="D22" t="s">
-        <v>1180</v>
+        <v>1192</v>
       </c>
       <c r="E22" s="108">
         <v>2019</v>
@@ -29554,26 +29813,39 @@
         <v>50</v>
       </c>
       <c r="AB22" s="5"/>
+      <c r="AT22" s="199">
+        <v>1.2626040000000001</v>
+      </c>
+      <c r="AW22" s="199">
+        <v>0.150979</v>
+      </c>
+      <c r="AY22" s="203">
+        <f t="shared" si="0"/>
+        <v>8.3627789295199992</v>
+      </c>
+      <c r="BB22" s="199">
+        <v>6.1547487257077549</v>
+      </c>
       <c r="BC22" s="197">
-        <v>-27.617999999999999</v>
+        <v>-24.971</v>
       </c>
       <c r="BE22">
-        <v>184988</v>
+        <v>184978</v>
       </c>
       <c r="BF22" s="3">
         <v>2019</v>
       </c>
       <c r="BG22">
-        <v>36.61</v>
+        <v>-76.08</v>
       </c>
       <c r="BH22">
-        <v>2.16</v>
+        <v>2.5099999999999998</v>
       </c>
       <c r="BJ22">
-        <v>1.0454000000000001</v>
+        <v>0.93179999999999996</v>
       </c>
       <c r="BK22">
-        <v>2.2000000000000001E-3</v>
+        <v>2.5000000000000001E-3</v>
       </c>
     </row>
     <row r="23" spans="1:63" ht="14.5">
@@ -29584,10 +29856,10 @@
         <v>998</v>
       </c>
       <c r="C23" s="9" t="s">
-        <v>1005</v>
+        <v>1008</v>
       </c>
       <c r="D23" t="s">
-        <v>1181</v>
+        <v>1193</v>
       </c>
       <c r="E23" s="108">
         <v>2019</v>
@@ -29603,26 +29875,39 @@
         <v>100</v>
       </c>
       <c r="AB23" s="5"/>
+      <c r="AT23" s="199">
+        <v>0.51722199999999996</v>
+      </c>
+      <c r="AW23" s="199">
+        <v>7.324E-2</v>
+      </c>
+      <c r="AY23" s="203">
+        <f t="shared" si="0"/>
+        <v>7.0620152921900594</v>
+      </c>
+      <c r="BB23" s="199">
+        <v>7.4595961852986843</v>
+      </c>
       <c r="BC23" s="197">
-        <v>-27.013999999999999</v>
+        <v>-25.050999999999998</v>
       </c>
       <c r="BE23">
-        <v>185078</v>
+        <v>184979</v>
       </c>
       <c r="BF23" s="3">
         <v>2019</v>
       </c>
       <c r="BG23">
-        <v>-9.07</v>
+        <v>-221</v>
       </c>
       <c r="BH23">
-        <v>3.46</v>
+        <v>2.15</v>
       </c>
       <c r="BJ23">
-        <v>0.99939999999999996</v>
+        <v>0.78559999999999997</v>
       </c>
       <c r="BK23">
-        <v>3.5000000000000001E-3</v>
+        <v>2.2000000000000001E-3</v>
       </c>
     </row>
     <row r="24" spans="1:63" ht="14.5">
@@ -29633,10 +29918,10 @@
         <v>998</v>
       </c>
       <c r="C24" s="9" t="s">
-        <v>1006</v>
+        <v>1003</v>
       </c>
       <c r="D24" t="s">
-        <v>1182</v>
+        <v>1170</v>
       </c>
       <c r="E24" s="108">
         <v>2019</v>
@@ -29652,26 +29937,39 @@
         <v>10</v>
       </c>
       <c r="AB24" s="5"/>
+      <c r="AT24" s="199">
+        <v>4.4601160000000002</v>
+      </c>
+      <c r="AW24" s="199">
+        <v>0.42329299999999997</v>
+      </c>
+      <c r="AY24" s="203">
+        <f t="shared" si="0"/>
+        <v>10.536710977975067</v>
+      </c>
+      <c r="BB24" s="199">
+        <v>3.5240273183119029</v>
+      </c>
       <c r="BC24" s="197">
-        <v>-27.911000000000001</v>
+        <v>-27.841999999999999</v>
       </c>
       <c r="BE24">
-        <v>184909</v>
+        <v>184919</v>
       </c>
       <c r="BF24" s="3">
         <v>2019</v>
       </c>
       <c r="BG24">
-        <v>60.3</v>
+        <v>65.2</v>
       </c>
       <c r="BH24">
-        <v>2.4</v>
+        <v>2.2999999999999998</v>
       </c>
       <c r="BJ24">
-        <v>1.0692999999999999</v>
+        <v>1.0742</v>
       </c>
       <c r="BK24">
-        <v>2.3999999999999998E-3</v>
+        <v>2.3E-3</v>
       </c>
     </row>
     <row r="25" spans="1:63" ht="14.5">
@@ -29682,10 +29980,10 @@
         <v>998</v>
       </c>
       <c r="C25" s="9" t="s">
-        <v>1006</v>
+        <v>1003</v>
       </c>
       <c r="D25" t="s">
-        <v>1183</v>
+        <v>1171</v>
       </c>
       <c r="E25" s="108">
         <v>2019</v>
@@ -29701,26 +29999,39 @@
         <v>20</v>
       </c>
       <c r="AB25" s="5"/>
+      <c r="AT25" s="199">
+        <v>1.4637249999999999</v>
+      </c>
+      <c r="AW25" s="199">
+        <v>0.19730500000000001</v>
+      </c>
+      <c r="AY25" s="203">
+        <f t="shared" si="0"/>
+        <v>7.4185905070829419</v>
+      </c>
+      <c r="BB25" s="199">
+        <v>5.5789619852560159</v>
+      </c>
       <c r="BC25" s="197">
-        <v>-26.850999999999999</v>
+        <v>-26.21</v>
       </c>
       <c r="BE25">
-        <v>184910</v>
+        <v>184920</v>
       </c>
       <c r="BF25" s="3">
         <v>2019</v>
       </c>
       <c r="BG25">
-        <v>46.3</v>
+        <v>24.1</v>
       </c>
       <c r="BH25">
-        <v>2.4</v>
+        <v>2.2000000000000002</v>
       </c>
       <c r="BJ25">
-        <v>1.0551999999999999</v>
+        <v>1.0327999999999999</v>
       </c>
       <c r="BK25">
-        <v>2.3999999999999998E-3</v>
+        <v>2.2000000000000001E-3</v>
       </c>
     </row>
     <row r="26" spans="1:63" ht="14.5">
@@ -29731,10 +30042,10 @@
         <v>998</v>
       </c>
       <c r="C26" s="9" t="s">
-        <v>1006</v>
+        <v>1003</v>
       </c>
       <c r="D26" t="s">
-        <v>1184</v>
+        <v>1172</v>
       </c>
       <c r="E26" s="108">
         <v>2019</v>
@@ -29750,26 +30061,39 @@
         <v>50</v>
       </c>
       <c r="AB26" s="5"/>
+      <c r="AT26" s="199">
+        <v>0.54728699999999997</v>
+      </c>
+      <c r="AW26" s="199">
+        <v>7.4460999999999999E-2</v>
+      </c>
+      <c r="AY26" s="203">
+        <f t="shared" si="0"/>
+        <v>7.349981869703603</v>
+      </c>
+      <c r="BB26" s="199">
+        <v>7.1960579120025212</v>
+      </c>
       <c r="BC26" s="197">
-        <v>-26.140999999999998</v>
+        <v>-25.363</v>
       </c>
       <c r="BE26">
-        <v>184970</v>
+        <v>184980</v>
       </c>
       <c r="BF26" s="3">
         <v>2019</v>
       </c>
       <c r="BG26">
-        <v>-31.15</v>
+        <v>-32.159999999999997</v>
       </c>
       <c r="BH26">
-        <v>1.72</v>
+        <v>1.93</v>
       </c>
       <c r="BJ26">
-        <v>0.97709999999999997</v>
+        <v>0.97609999999999997</v>
       </c>
       <c r="BK26">
-        <v>1.6999999999999999E-3</v>
+        <v>1.9E-3</v>
       </c>
     </row>
     <row r="27" spans="1:63" ht="14.5">
@@ -29780,10 +30104,10 @@
         <v>998</v>
       </c>
       <c r="C27" s="9" t="s">
-        <v>1006</v>
+        <v>1003</v>
       </c>
       <c r="D27" t="s">
-        <v>1185</v>
+        <v>1173</v>
       </c>
       <c r="E27" s="108">
         <v>2019</v>
@@ -29799,26 +30123,39 @@
         <v>100</v>
       </c>
       <c r="AB27" s="5"/>
+      <c r="AT27" s="199">
+        <v>0.13925899999999999</v>
+      </c>
+      <c r="AW27" s="199">
+        <v>2.2360999999999999E-2</v>
+      </c>
+      <c r="AY27" s="203">
+        <f t="shared" si="0"/>
+        <v>6.2277626224229685</v>
+      </c>
+      <c r="BB27" s="199">
+        <v>10.93596324387785</v>
+      </c>
       <c r="BC27" s="197">
-        <v>-26.193000000000001</v>
+        <v>-25.599</v>
       </c>
       <c r="BE27">
-        <v>184971</v>
+        <v>184981</v>
       </c>
       <c r="BF27" s="3">
         <v>2019</v>
       </c>
       <c r="BG27">
-        <v>-73.040000000000006</v>
+        <v>-178.58</v>
       </c>
       <c r="BH27">
-        <v>1.95</v>
+        <v>1.84</v>
       </c>
       <c r="BJ27">
-        <v>0.93479999999999996</v>
+        <v>0.82840000000000003</v>
       </c>
       <c r="BK27">
-        <v>1.9E-3</v>
+        <v>1.8E-3</v>
       </c>
     </row>
     <row r="28" spans="1:63" ht="14.5">
@@ -29829,10 +30166,10 @@
         <v>998</v>
       </c>
       <c r="C28" s="9" t="s">
-        <v>1007</v>
+        <v>1009</v>
       </c>
       <c r="D28" t="s">
-        <v>1186</v>
+        <v>1194</v>
       </c>
       <c r="E28" s="108">
         <v>2019</v>
@@ -29848,26 +30185,39 @@
         <v>10</v>
       </c>
       <c r="AB28" s="5"/>
+      <c r="AT28" s="199">
+        <v>6.1526610000000002</v>
+      </c>
+      <c r="AW28" s="199">
+        <v>0.56780799999999998</v>
+      </c>
+      <c r="AY28" s="203">
+        <f t="shared" si="0"/>
+        <v>10.835812457732192</v>
+      </c>
+      <c r="BB28" s="199">
+        <v>3.6228303551455876</v>
+      </c>
       <c r="BC28" s="197">
-        <v>-28.003</v>
+        <v>-28.198</v>
       </c>
       <c r="BE28">
-        <v>184913</v>
+        <v>184921</v>
       </c>
       <c r="BF28" s="3">
         <v>2019</v>
       </c>
       <c r="BG28">
-        <v>45.7</v>
+        <v>48.1</v>
       </c>
       <c r="BH28">
-        <v>2.4</v>
+        <v>2.2999999999999998</v>
       </c>
       <c r="BJ28">
-        <v>1.0545</v>
+        <v>1.0570999999999999</v>
       </c>
       <c r="BK28">
-        <v>2.3999999999999998E-3</v>
+        <v>2.3E-3</v>
       </c>
     </row>
     <row r="29" spans="1:63" ht="14.5">
@@ -29878,10 +30228,10 @@
         <v>998</v>
       </c>
       <c r="C29" s="9" t="s">
-        <v>1007</v>
+        <v>1009</v>
       </c>
       <c r="D29" t="s">
-        <v>1187</v>
+        <v>1195</v>
       </c>
       <c r="E29" s="108">
         <v>2019</v>
@@ -29897,26 +30247,39 @@
         <v>20</v>
       </c>
       <c r="AB29" s="5"/>
+      <c r="AT29" s="199">
+        <v>2.6642049999999999</v>
+      </c>
+      <c r="AW29" s="199">
+        <v>0.27750200000000003</v>
+      </c>
+      <c r="AY29" s="203">
+        <f t="shared" si="0"/>
+        <v>9.6006695447240009</v>
+      </c>
+      <c r="BB29" s="199">
+        <v>4.7321607188591734</v>
+      </c>
       <c r="BC29" s="197">
-        <v>-27.082999999999998</v>
+        <v>-27.611000000000001</v>
       </c>
       <c r="BE29">
-        <v>184914</v>
+        <v>184922</v>
       </c>
       <c r="BF29" s="3">
         <v>2019</v>
       </c>
       <c r="BG29">
-        <v>45.5</v>
+        <v>44</v>
       </c>
       <c r="BH29">
-        <v>2.2999999999999998</v>
+        <v>2.4</v>
       </c>
       <c r="BJ29">
-        <v>1.0544</v>
+        <v>1.0528</v>
       </c>
       <c r="BK29">
-        <v>2.3E-3</v>
+        <v>2.3999999999999998E-3</v>
       </c>
     </row>
     <row r="30" spans="1:63" ht="14.5">
@@ -29927,10 +30290,10 @@
         <v>998</v>
       </c>
       <c r="C30" s="9" t="s">
-        <v>1007</v>
+        <v>1009</v>
       </c>
       <c r="D30" t="s">
-        <v>1188</v>
+        <v>1196</v>
       </c>
       <c r="E30" s="108">
         <v>2019</v>
@@ -29946,26 +30309,39 @@
         <v>50</v>
       </c>
       <c r="AB30" s="5"/>
+      <c r="AT30" s="199">
+        <v>1.168021</v>
+      </c>
+      <c r="AW30" s="199">
+        <v>0.14813000000000001</v>
+      </c>
+      <c r="AY30" s="203">
+        <f t="shared" si="0"/>
+        <v>7.8851076756902714</v>
+      </c>
+      <c r="BB30" s="199">
+        <v>6.2674697702332853</v>
+      </c>
       <c r="BC30" s="197">
-        <v>-25.879000000000001</v>
+        <v>-26.295000000000002</v>
       </c>
       <c r="BE30">
-        <v>184974</v>
+        <v>184982</v>
       </c>
       <c r="BF30" s="3">
         <v>2019</v>
       </c>
       <c r="BG30">
-        <v>-40.71</v>
+        <v>33.659999999999997</v>
       </c>
       <c r="BH30">
-        <v>2.09</v>
+        <v>1.86</v>
       </c>
       <c r="BJ30">
-        <v>0.96750000000000003</v>
+        <v>1.0424</v>
       </c>
       <c r="BK30">
-        <v>2.0999999999999999E-3</v>
+        <v>1.9E-3</v>
       </c>
     </row>
     <row r="31" spans="1:63" ht="14.5">
@@ -29976,10 +30352,10 @@
         <v>998</v>
       </c>
       <c r="C31" s="9" t="s">
-        <v>1007</v>
+        <v>1009</v>
       </c>
       <c r="D31" t="s">
-        <v>1189</v>
+        <v>1197</v>
       </c>
       <c r="E31" s="108">
         <v>2019</v>
@@ -29995,26 +30371,39 @@
         <v>100</v>
       </c>
       <c r="AB31" s="5"/>
+      <c r="AT31" s="199">
+        <v>0.278082</v>
+      </c>
+      <c r="AW31" s="199">
+        <v>4.8182999999999997E-2</v>
+      </c>
+      <c r="AY31" s="203">
+        <f t="shared" si="0"/>
+        <v>5.7713716456011461</v>
+      </c>
+      <c r="BB31" s="199">
+        <v>9.3277612776135115</v>
+      </c>
       <c r="BC31" s="197">
-        <v>-25.689</v>
+        <v>-25.837</v>
       </c>
       <c r="BE31">
-        <v>184975</v>
+        <v>184983</v>
       </c>
       <c r="BF31" s="3">
         <v>2019</v>
       </c>
       <c r="BG31">
-        <v>-146.65</v>
+        <v>-113.4</v>
       </c>
       <c r="BH31">
-        <v>1.9</v>
+        <v>1.96</v>
       </c>
       <c r="BJ31">
-        <v>0.86060000000000003</v>
+        <v>0.89410000000000001</v>
       </c>
       <c r="BK31">
-        <v>1.9E-3</v>
+        <v>2E-3</v>
       </c>
     </row>
     <row r="32" spans="1:63" ht="14.5">
@@ -30025,10 +30414,10 @@
         <v>998</v>
       </c>
       <c r="C32" s="9" t="s">
-        <v>1008</v>
+        <v>1004</v>
       </c>
       <c r="D32" t="s">
-        <v>1190</v>
+        <v>1174</v>
       </c>
       <c r="E32" s="108">
         <v>2019</v>
@@ -30044,23 +30433,36 @@
         <v>10</v>
       </c>
       <c r="AB32" s="5"/>
+      <c r="AT32" s="199">
+        <v>3.878247</v>
+      </c>
+      <c r="AW32" s="199">
+        <v>0.30075400000000002</v>
+      </c>
+      <c r="AY32" s="203">
+        <f t="shared" si="0"/>
+        <v>12.895080364683428</v>
+      </c>
+      <c r="BB32" s="199">
+        <v>3.3631194841558978</v>
+      </c>
       <c r="BC32" s="197">
-        <v>-27.94</v>
+        <v>-28.821000000000002</v>
       </c>
       <c r="BE32">
-        <v>184917</v>
+        <v>184923</v>
       </c>
       <c r="BF32" s="3">
         <v>2019</v>
       </c>
       <c r="BG32">
-        <v>62.9</v>
+        <v>31.5</v>
       </c>
       <c r="BH32">
         <v>2.4</v>
       </c>
       <c r="BJ32">
-        <v>1.0720000000000001</v>
+        <v>1.0403</v>
       </c>
       <c r="BK32">
         <v>2.3999999999999998E-3</v>
@@ -30074,10 +30476,10 @@
         <v>998</v>
       </c>
       <c r="C33" s="9" t="s">
-        <v>1008</v>
+        <v>1004</v>
       </c>
       <c r="D33" t="s">
-        <v>1191</v>
+        <v>1175</v>
       </c>
       <c r="E33" s="108">
         <v>2019</v>
@@ -30093,23 +30495,36 @@
         <v>20</v>
       </c>
       <c r="AB33" s="5"/>
+      <c r="AT33" s="199">
+        <v>1.567944</v>
+      </c>
+      <c r="AW33" s="199">
+        <v>0.170875</v>
+      </c>
+      <c r="AY33" s="203">
+        <f t="shared" si="0"/>
+        <v>9.1759707388441836</v>
+      </c>
+      <c r="BB33" s="199">
+        <v>5.8579151939811229</v>
+      </c>
       <c r="BC33" s="197">
-        <v>-27.045999999999999</v>
+        <v>-27.128</v>
       </c>
       <c r="BE33">
-        <v>184918</v>
+        <v>184924</v>
       </c>
       <c r="BF33" s="3">
         <v>2019</v>
       </c>
       <c r="BG33">
-        <v>69.900000000000006</v>
+        <v>8.6</v>
       </c>
       <c r="BH33">
         <v>2.2999999999999998</v>
       </c>
       <c r="BJ33">
-        <v>1.079</v>
+        <v>1.0172000000000001</v>
       </c>
       <c r="BK33">
         <v>2.3E-3</v>
@@ -30123,10 +30538,10 @@
         <v>998</v>
       </c>
       <c r="C34" s="9" t="s">
-        <v>1008</v>
+        <v>1004</v>
       </c>
       <c r="D34" t="s">
-        <v>1192</v>
+        <v>1176</v>
       </c>
       <c r="E34" s="108">
         <v>2019</v>
@@ -30142,26 +30557,39 @@
         <v>50</v>
       </c>
       <c r="AB34" s="5"/>
+      <c r="AT34" s="199">
+        <v>0.53253799999999996</v>
+      </c>
+      <c r="AW34" s="199">
+        <v>7.0287000000000002E-2</v>
+      </c>
+      <c r="AY34" s="203">
+        <f t="shared" si="0"/>
+        <v>7.5766215658656639</v>
+      </c>
+      <c r="BB34" s="199">
+        <v>7.3240420855672808</v>
+      </c>
       <c r="BC34" s="197">
-        <v>-24.971</v>
+        <v>-26.471</v>
       </c>
       <c r="BE34">
-        <v>184978</v>
+        <v>184984</v>
       </c>
       <c r="BF34" s="3">
         <v>2019</v>
       </c>
       <c r="BG34">
-        <v>-76.08</v>
+        <v>-55.07</v>
       </c>
       <c r="BH34">
-        <v>2.5099999999999998</v>
+        <v>1.98</v>
       </c>
       <c r="BJ34">
-        <v>0.93179999999999996</v>
+        <v>0.95299999999999996</v>
       </c>
       <c r="BK34">
-        <v>2.5000000000000001E-3</v>
+        <v>2E-3</v>
       </c>
     </row>
     <row r="35" spans="1:63" ht="14.5">
@@ -30172,10 +30600,10 @@
         <v>998</v>
       </c>
       <c r="C35" s="9" t="s">
-        <v>1008</v>
+        <v>1004</v>
       </c>
       <c r="D35" t="s">
-        <v>1193</v>
+        <v>1177</v>
       </c>
       <c r="E35" s="108">
         <v>2019</v>
@@ -30191,26 +30619,39 @@
         <v>100</v>
       </c>
       <c r="AB35" s="5"/>
+      <c r="AT35" s="199">
+        <v>0.45517999999999997</v>
+      </c>
+      <c r="AW35" s="199">
+        <v>6.5643000000000007E-2</v>
+      </c>
+      <c r="AY35" s="203">
+        <f t="shared" si="0"/>
+        <v>6.9341742455402695</v>
+      </c>
+      <c r="BB35" s="199">
+        <v>8.2736319990167431</v>
+      </c>
       <c r="BC35" s="197">
-        <v>-25.050999999999998</v>
+        <v>-26.140999999999998</v>
       </c>
       <c r="BE35">
-        <v>184979</v>
+        <v>184985</v>
       </c>
       <c r="BF35" s="3">
         <v>2019</v>
       </c>
       <c r="BG35">
-        <v>-221</v>
+        <v>-120.8</v>
       </c>
       <c r="BH35">
-        <v>2.15</v>
+        <v>2.04</v>
       </c>
       <c r="BJ35">
-        <v>0.78559999999999997</v>
+        <v>0.88670000000000004</v>
       </c>
       <c r="BK35">
-        <v>2.2000000000000001E-3</v>
+        <v>2E-3</v>
       </c>
     </row>
     <row r="36" spans="1:63" ht="14.5">
@@ -30221,10 +30662,10 @@
         <v>998</v>
       </c>
       <c r="C36" s="9" t="s">
-        <v>1009</v>
+        <v>1010</v>
       </c>
       <c r="D36" t="s">
-        <v>1194</v>
+        <v>1198</v>
       </c>
       <c r="E36" s="108">
         <v>2019</v>
@@ -30240,26 +30681,39 @@
         <v>10</v>
       </c>
       <c r="AB36" s="5"/>
+      <c r="AT36" s="199">
+        <v>4.1379809999999999</v>
+      </c>
+      <c r="AW36" s="199">
+        <v>0.37774099999999999</v>
+      </c>
+      <c r="AY36" s="203">
+        <f t="shared" si="0"/>
+        <v>10.954545574878026</v>
+      </c>
+      <c r="BB36" s="199">
+        <v>4.3181982923539968</v>
+      </c>
       <c r="BC36" s="197">
-        <v>-28.198</v>
+        <v>-28.241</v>
       </c>
       <c r="BE36">
-        <v>184921</v>
+        <v>184925</v>
       </c>
       <c r="BF36" s="3">
         <v>2019</v>
       </c>
       <c r="BG36">
-        <v>48.1</v>
+        <v>57.5</v>
       </c>
       <c r="BH36">
-        <v>2.2999999999999998</v>
+        <v>2.5</v>
       </c>
       <c r="BJ36">
-        <v>1.0570999999999999</v>
+        <v>1.0665</v>
       </c>
       <c r="BK36">
-        <v>2.3E-3</v>
+        <v>2.5000000000000001E-3</v>
       </c>
     </row>
     <row r="37" spans="1:63" ht="14.5">
@@ -30270,10 +30724,10 @@
         <v>998</v>
       </c>
       <c r="C37" s="9" t="s">
-        <v>1009</v>
+        <v>1010</v>
       </c>
       <c r="D37" t="s">
-        <v>1195</v>
+        <v>1199</v>
       </c>
       <c r="E37" s="108">
         <v>2019</v>
@@ -30289,23 +30743,36 @@
         <v>20</v>
       </c>
       <c r="AB37" s="5"/>
+      <c r="AT37" s="199">
+        <v>1.232648</v>
+      </c>
+      <c r="AW37" s="199">
+        <v>0.12876399999999999</v>
+      </c>
+      <c r="AY37" s="203">
+        <f t="shared" si="0"/>
+        <v>9.5729241092230755</v>
+      </c>
+      <c r="BB37" s="199">
+        <v>5.3771502416909724</v>
+      </c>
       <c r="BC37" s="197">
-        <v>-27.611000000000001</v>
+        <v>-27.387</v>
       </c>
       <c r="BE37">
-        <v>184922</v>
+        <v>184926</v>
       </c>
       <c r="BF37" s="3">
         <v>2019</v>
       </c>
       <c r="BG37">
-        <v>44</v>
+        <v>59.2</v>
       </c>
       <c r="BH37">
         <v>2.4</v>
       </c>
       <c r="BJ37">
-        <v>1.0528</v>
+        <v>1.0682</v>
       </c>
       <c r="BK37">
         <v>2.3999999999999998E-3</v>
@@ -30319,10 +30786,10 @@
         <v>998</v>
       </c>
       <c r="C38" s="9" t="s">
-        <v>1009</v>
+        <v>1010</v>
       </c>
       <c r="D38" t="s">
-        <v>1196</v>
+        <v>1200</v>
       </c>
       <c r="E38" s="108">
         <v>2019</v>
@@ -30338,26 +30805,39 @@
         <v>50</v>
       </c>
       <c r="AB38" s="5"/>
+      <c r="AT38" s="199">
+        <v>0.29677900000000002</v>
+      </c>
+      <c r="AW38" s="199">
+        <v>3.9771000000000001E-2</v>
+      </c>
+      <c r="AY38" s="203">
+        <f t="shared" si="0"/>
+        <v>7.462196072515149</v>
+      </c>
+      <c r="BB38" s="199">
+        <v>8.9644725251820212</v>
+      </c>
       <c r="BC38" s="197">
-        <v>-26.295000000000002</v>
+        <v>-26.151</v>
       </c>
       <c r="BE38">
-        <v>184982</v>
+        <v>184986</v>
       </c>
       <c r="BF38" s="3">
         <v>2019</v>
       </c>
       <c r="BG38">
-        <v>33.659999999999997</v>
+        <v>-41.54</v>
       </c>
       <c r="BH38">
-        <v>1.86</v>
+        <v>2.2200000000000002</v>
       </c>
       <c r="BJ38">
-        <v>1.0424</v>
+        <v>0.96660000000000001</v>
       </c>
       <c r="BK38">
-        <v>1.9E-3</v>
+        <v>2.2000000000000001E-3</v>
       </c>
     </row>
     <row r="39" spans="1:63" ht="14.5">
@@ -30368,10 +30848,10 @@
         <v>998</v>
       </c>
       <c r="C39" s="9" t="s">
-        <v>1009</v>
+        <v>1010</v>
       </c>
       <c r="D39" t="s">
-        <v>1197</v>
+        <v>1201</v>
       </c>
       <c r="E39" s="108">
         <v>2019</v>
@@ -30387,26 +30867,39 @@
         <v>100</v>
       </c>
       <c r="AB39" s="5"/>
+      <c r="AT39" s="199">
+        <v>0.157495</v>
+      </c>
+      <c r="AW39" s="199">
+        <v>3.0737E-2</v>
+      </c>
+      <c r="AY39" s="203">
+        <f t="shared" si="0"/>
+        <v>5.1239548426977253</v>
+      </c>
+      <c r="BB39" s="199">
+        <v>9.7013922347764492</v>
+      </c>
       <c r="BC39" s="197">
-        <v>-25.837</v>
+        <v>-25.931000000000001</v>
       </c>
       <c r="BE39">
-        <v>184983</v>
+        <v>184987</v>
       </c>
       <c r="BF39" s="3">
         <v>2019</v>
       </c>
       <c r="BG39">
-        <v>-113.4</v>
+        <v>-62.42</v>
       </c>
       <c r="BH39">
-        <v>1.96</v>
+        <v>2.27</v>
       </c>
       <c r="BJ39">
-        <v>0.89410000000000001</v>
+        <v>0.9456</v>
       </c>
       <c r="BK39">
-        <v>2E-3</v>
+        <v>2.3E-3</v>
       </c>
     </row>
     <row r="40" spans="1:63" ht="14.5">
@@ -30417,10 +30910,10 @@
         <v>998</v>
       </c>
       <c r="C40" s="9" t="s">
-        <v>1010</v>
+        <v>1005</v>
       </c>
       <c r="D40" t="s">
-        <v>1198</v>
+        <v>1178</v>
       </c>
       <c r="E40" s="108">
         <v>2019</v>
@@ -30436,26 +30929,39 @@
         <v>10</v>
       </c>
       <c r="AB40" s="5"/>
+      <c r="AT40" s="199">
+        <v>3.2633700000000001</v>
+      </c>
+      <c r="AW40" s="199">
+        <v>0.317249</v>
+      </c>
+      <c r="AY40" s="203">
+        <f t="shared" si="0"/>
+        <v>10.286462683885528</v>
+      </c>
+      <c r="BB40" s="199">
+        <v>3.6169087951059269</v>
+      </c>
       <c r="BC40" s="197">
-        <v>-28.241</v>
+        <v>-28.004000000000001</v>
       </c>
       <c r="BE40">
-        <v>184925</v>
+        <v>184927</v>
       </c>
       <c r="BF40" s="3">
         <v>2019</v>
       </c>
       <c r="BG40">
-        <v>57.5</v>
+        <v>70.3</v>
       </c>
       <c r="BH40">
-        <v>2.5</v>
+        <v>2.4</v>
       </c>
       <c r="BJ40">
-        <v>1.0665</v>
+        <v>1.0793999999999999</v>
       </c>
       <c r="BK40">
-        <v>2.5000000000000001E-3</v>
+        <v>2.3999999999999998E-3</v>
       </c>
     </row>
     <row r="41" spans="1:63" ht="14.5">
@@ -30466,10 +30972,10 @@
         <v>998</v>
       </c>
       <c r="C41" s="9" t="s">
-        <v>1010</v>
+        <v>1005</v>
       </c>
       <c r="D41" t="s">
-        <v>1199</v>
+        <v>1179</v>
       </c>
       <c r="E41" s="108">
         <v>2019</v>
@@ -30485,23 +30991,36 @@
         <v>20</v>
       </c>
       <c r="AB41" s="5"/>
+      <c r="AT41" s="199">
+        <v>1.954145</v>
+      </c>
+      <c r="AW41" s="199">
+        <v>0.22403600000000001</v>
+      </c>
+      <c r="AY41" s="203">
+        <f t="shared" si="0"/>
+        <v>8.7224597832491195</v>
+      </c>
+      <c r="BB41" s="199">
+        <v>5.2573460404035597</v>
+      </c>
       <c r="BC41" s="197">
-        <v>-27.387</v>
+        <v>-26.936</v>
       </c>
       <c r="BE41">
-        <v>184926</v>
+        <v>184928</v>
       </c>
       <c r="BF41" s="3">
         <v>2019</v>
       </c>
       <c r="BG41">
-        <v>59.2</v>
+        <v>85.2</v>
       </c>
       <c r="BH41">
         <v>2.4</v>
       </c>
       <c r="BJ41">
-        <v>1.0682</v>
+        <v>1.0945</v>
       </c>
       <c r="BK41">
         <v>2.3999999999999998E-3</v>
@@ -30515,10 +31034,10 @@
         <v>998</v>
       </c>
       <c r="C42" s="9" t="s">
-        <v>1010</v>
+        <v>1005</v>
       </c>
       <c r="D42" t="s">
-        <v>1200</v>
+        <v>1180</v>
       </c>
       <c r="E42" s="108">
         <v>2019</v>
@@ -30534,23 +31053,36 @@
         <v>50</v>
       </c>
       <c r="AB42" s="5"/>
+      <c r="AT42" s="199">
+        <v>1.0673999999999999</v>
+      </c>
+      <c r="AW42" s="199">
+        <v>0.11663900000000001</v>
+      </c>
+      <c r="AY42" s="203">
+        <f t="shared" si="0"/>
+        <v>9.1513130256603699</v>
+      </c>
+      <c r="BB42" s="199">
+        <v>5.3587121589299285</v>
+      </c>
       <c r="BC42" s="197">
-        <v>-26.151</v>
+        <v>-27.617999999999999</v>
       </c>
       <c r="BE42">
-        <v>184986</v>
+        <v>184988</v>
       </c>
       <c r="BF42" s="3">
         <v>2019</v>
       </c>
       <c r="BG42">
-        <v>-41.54</v>
+        <v>36.61</v>
       </c>
       <c r="BH42">
-        <v>2.2200000000000002</v>
+        <v>2.16</v>
       </c>
       <c r="BJ42">
-        <v>0.96660000000000001</v>
+        <v>1.0454000000000001</v>
       </c>
       <c r="BK42">
         <v>2.2000000000000001E-3</v>
@@ -30564,10 +31096,10 @@
         <v>998</v>
       </c>
       <c r="C43" s="9" t="s">
-        <v>1010</v>
+        <v>1005</v>
       </c>
       <c r="D43" t="s">
-        <v>1201</v>
+        <v>1181</v>
       </c>
       <c r="E43" s="108">
         <v>2019</v>
@@ -30583,29 +31115,42 @@
         <v>100</v>
       </c>
       <c r="AB43" s="5"/>
+      <c r="AT43" s="199">
+        <v>0.36514099999999999</v>
+      </c>
+      <c r="AW43" s="199">
+        <v>4.7035E-2</v>
+      </c>
+      <c r="AY43" s="203">
+        <f t="shared" si="0"/>
+        <v>7.7631763580312532</v>
+      </c>
+      <c r="BB43" s="199">
+        <v>8.0434739463501153</v>
+      </c>
       <c r="BC43" s="197">
-        <v>-25.931000000000001</v>
+        <v>-27.013999999999999</v>
       </c>
       <c r="BE43">
-        <v>184987</v>
+        <v>185078</v>
       </c>
       <c r="BF43" s="3">
         <v>2019</v>
       </c>
       <c r="BG43">
-        <v>-62.42</v>
+        <v>-9.07</v>
       </c>
       <c r="BH43">
-        <v>2.27</v>
+        <v>3.46</v>
       </c>
       <c r="BJ43">
-        <v>0.9456</v>
+        <v>0.99939999999999996</v>
       </c>
       <c r="BK43">
-        <v>2.3E-3</v>
-      </c>
-    </row>
-    <row r="44" spans="1:63" ht="14.5">
+        <v>3.5000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="44" spans="1:63" ht="15.5">
       <c r="A44" s="3" t="s">
         <v>989</v>
       </c>
@@ -30629,6 +31174,19 @@
         <v>10</v>
       </c>
       <c r="AB44" s="5"/>
+      <c r="AT44" s="200">
+        <v>5.15</v>
+      </c>
+      <c r="AW44" s="200">
+        <v>0.43</v>
+      </c>
+      <c r="AY44" s="203">
+        <f t="shared" si="0"/>
+        <v>11.976744186046513</v>
+      </c>
+      <c r="BB44" s="199">
+        <v>4.7370979124874388</v>
+      </c>
       <c r="BC44">
         <v>-28.13</v>
       </c>
@@ -30651,7 +31209,7 @@
         <v>3.8E-3</v>
       </c>
     </row>
-    <row r="45" spans="1:63" ht="14.5">
+    <row r="45" spans="1:63" ht="15.5">
       <c r="A45" s="3" t="s">
         <v>989</v>
       </c>
@@ -30675,6 +31233,19 @@
         <v>10</v>
       </c>
       <c r="AB45" s="5"/>
+      <c r="AT45" s="200">
+        <v>6.08</v>
+      </c>
+      <c r="AW45" s="200">
+        <v>0.48</v>
+      </c>
+      <c r="AY45" s="203">
+        <f t="shared" si="0"/>
+        <v>12.666666666666668</v>
+      </c>
+      <c r="BB45" s="199">
+        <v>3.9892640331147278</v>
+      </c>
       <c r="BC45">
         <v>-28.21</v>
       </c>
@@ -30697,7 +31268,7 @@
         <v>3.8E-3</v>
       </c>
     </row>
-    <row r="46" spans="1:63" ht="14.5">
+    <row r="46" spans="1:63" ht="15.5">
       <c r="A46" s="3" t="s">
         <v>989</v>
       </c>
@@ -30721,6 +31292,19 @@
         <v>10</v>
       </c>
       <c r="AB46" s="5"/>
+      <c r="AT46" s="201">
+        <v>5.5991780000000002</v>
+      </c>
+      <c r="AW46" s="201">
+        <v>0.44642300000000001</v>
+      </c>
+      <c r="AY46" s="203">
+        <f t="shared" si="0"/>
+        <v>12.542315248094296</v>
+      </c>
+      <c r="BB46" s="199">
+        <v>3.7137793505673407</v>
+      </c>
       <c r="BC46">
         <v>-28.42</v>
       </c>
@@ -30767,9 +31351,11 @@
         <v>25</v>
       </c>
       <c r="AB47" s="5"/>
-      <c r="BC47" t="s">
-        <v>1160</v>
-      </c>
+      <c r="AT47"/>
+      <c r="AW47"/>
+      <c r="AY47" s="203"/>
+      <c r="BB47"/>
+      <c r="BC47"/>
       <c r="BE47">
         <v>182291</v>
       </c>
@@ -30813,9 +31399,11 @@
         <v>25</v>
       </c>
       <c r="AB48" s="5"/>
-      <c r="BC48" t="s">
-        <v>1160</v>
-      </c>
+      <c r="AT48"/>
+      <c r="AW48"/>
+      <c r="AY48" s="203"/>
+      <c r="BB48"/>
+      <c r="BC48"/>
       <c r="BE48">
         <v>182427</v>
       </c>
@@ -30835,7 +31423,7 @@
         <v>3.2000000000000002E-3</v>
       </c>
     </row>
-    <row r="49" spans="1:63" ht="14.5">
+    <row r="49" spans="1:63" ht="15.5">
       <c r="A49" s="3" t="s">
         <v>989</v>
       </c>
@@ -30859,6 +31447,19 @@
         <v>50</v>
       </c>
       <c r="AB49" s="5"/>
+      <c r="AT49" s="201">
+        <v>0.66957599999999995</v>
+      </c>
+      <c r="AW49" s="201">
+        <v>6.2814999999999996E-2</v>
+      </c>
+      <c r="AY49" s="203">
+        <f t="shared" si="0"/>
+        <v>10.65949215951604</v>
+      </c>
+      <c r="BB49" s="202">
+        <v>0.06</v>
+      </c>
       <c r="BC49">
         <v>-25.62</v>
       </c>
@@ -30905,9 +31506,11 @@
         <v>75</v>
       </c>
       <c r="AB50" s="5"/>
-      <c r="BC50" t="s">
-        <v>1160</v>
-      </c>
+      <c r="AT50"/>
+      <c r="AW50"/>
+      <c r="AY50" s="203"/>
+      <c r="BB50"/>
+      <c r="BC50"/>
       <c r="BE50">
         <v>182293</v>
       </c>
@@ -30927,7 +31530,7 @@
         <v>3.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="51" spans="1:63" ht="14.5">
+    <row r="51" spans="1:63" ht="15.5">
       <c r="A51" s="3" t="s">
         <v>989</v>
       </c>
@@ -30951,6 +31554,19 @@
         <v>10</v>
       </c>
       <c r="AB51" s="5"/>
+      <c r="AT51" s="200">
+        <v>7.49</v>
+      </c>
+      <c r="AW51" s="200">
+        <v>0.5</v>
+      </c>
+      <c r="AY51" s="203">
+        <f t="shared" si="0"/>
+        <v>14.98</v>
+      </c>
+      <c r="BB51" s="200">
+        <v>3.8704321781259012</v>
+      </c>
       <c r="BC51">
         <v>-28.63</v>
       </c>
@@ -30973,7 +31589,7 @@
         <v>4.1999999999999997E-3</v>
       </c>
     </row>
-    <row r="52" spans="1:63" ht="14.5">
+    <row r="52" spans="1:63" ht="15.5">
       <c r="A52" s="3" t="s">
         <v>989</v>
       </c>
@@ -30997,6 +31613,19 @@
         <v>10</v>
       </c>
       <c r="AB52" s="5"/>
+      <c r="AT52" s="200">
+        <v>4.66</v>
+      </c>
+      <c r="AW52" s="200">
+        <v>0.45</v>
+      </c>
+      <c r="AY52" s="203">
+        <f t="shared" si="0"/>
+        <v>10.355555555555556</v>
+      </c>
+      <c r="BB52" s="200">
+        <v>5.4560443549897037</v>
+      </c>
       <c r="BC52">
         <v>-28.34</v>
       </c>
@@ -31019,7 +31648,7 @@
         <v>3.8E-3</v>
       </c>
     </row>
-    <row r="53" spans="1:63" ht="14.5">
+    <row r="53" spans="1:63" ht="15.5">
       <c r="A53" s="3" t="s">
         <v>989</v>
       </c>
@@ -31043,6 +31672,19 @@
         <v>10</v>
       </c>
       <c r="AB53" s="5"/>
+      <c r="AT53" s="201">
+        <v>5.9000469999999998</v>
+      </c>
+      <c r="AW53" s="201">
+        <v>0.450567</v>
+      </c>
+      <c r="AY53" s="203">
+        <f t="shared" si="0"/>
+        <v>13.094716213127015</v>
+      </c>
+      <c r="BB53" s="201">
+        <v>4.3606756573050118</v>
+      </c>
       <c r="BC53">
         <v>-28.49</v>
       </c>
@@ -31089,9 +31731,11 @@
         <v>25</v>
       </c>
       <c r="AB54" s="5"/>
-      <c r="BC54" t="s">
-        <v>1160</v>
-      </c>
+      <c r="AT54"/>
+      <c r="AW54"/>
+      <c r="AY54" s="203"/>
+      <c r="BB54"/>
+      <c r="BC54"/>
       <c r="BE54">
         <v>182425</v>
       </c>
@@ -31111,7 +31755,7 @@
         <v>3.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="55" spans="1:63" ht="14.5">
+    <row r="55" spans="1:63" ht="15.5">
       <c r="A55" s="3" t="s">
         <v>989</v>
       </c>
@@ -31135,6 +31779,19 @@
         <v>50</v>
       </c>
       <c r="AB55" s="5"/>
+      <c r="AT55" s="201">
+        <v>1.063313</v>
+      </c>
+      <c r="AW55" s="201">
+        <v>0.111244</v>
+      </c>
+      <c r="AY55" s="203">
+        <f t="shared" si="0"/>
+        <v>9.5583851713350825</v>
+      </c>
+      <c r="BB55" s="201">
+        <v>6.5497287571545177</v>
+      </c>
       <c r="BC55">
         <v>-25.32</v>
       </c>
@@ -32606,6 +33263,10 @@
     <row r="986" ht="14.5"/>
     <row r="987" ht="14.5"/>
   </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A4:DJ43">
+    <sortCondition ref="C4:C43"/>
+    <sortCondition ref="I4:I43"/>
+  </sortState>
   <phoneticPr fontId="31" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
@@ -33331,8 +33992,10 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:BZ996"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F1" sqref="F1"/>
+    <sheetView zoomScale="128" zoomScaleNormal="128" workbookViewId="0">
+      <pane xSplit="15285"/>
+      <selection activeCell="A4" sqref="A4:XFD6"/>
+      <selection pane="topRight" activeCell="Z19" sqref="Z19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="15.1796875" defaultRowHeight="15" customHeight="1"/>
@@ -34063,7 +34726,7 @@
         <v>808</v>
       </c>
     </row>
-    <row r="4" spans="1:78" ht="15" customHeight="1">
+    <row r="4" spans="1:78" ht="15.5">
       <c r="A4" s="13" t="s">
         <v>989</v>
       </c>
@@ -34076,14 +34739,14 @@
       <c r="D4" s="8" t="s">
         <v>1202</v>
       </c>
-      <c r="E4" s="8" t="s">
-        <v>1214</v>
+      <c r="E4" s="7" t="s">
+        <v>1219</v>
       </c>
       <c r="F4" s="8" t="s">
         <v>1202</v>
       </c>
       <c r="G4" s="5" t="s">
-        <v>965</v>
+        <v>964</v>
       </c>
       <c r="H4" s="8" t="s">
         <v>919</v>
@@ -34092,57 +34755,67 @@
         <v>173</v>
       </c>
       <c r="J4" s="8">
+        <v>0</v>
+      </c>
+      <c r="K4" s="8">
         <v>1.7</v>
-      </c>
-      <c r="K4" s="8" t="s">
-        <v>1218</v>
       </c>
       <c r="L4" s="4" t="s">
         <v>239</v>
       </c>
       <c r="M4" s="8" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="N4" s="5"/>
       <c r="O4" s="5"/>
       <c r="P4" s="5"/>
       <c r="Q4" s="5"/>
+      <c r="R4" s="5"/>
       <c r="S4" s="104"/>
       <c r="T4" s="104"/>
       <c r="U4" s="105"/>
       <c r="V4" s="12"/>
       <c r="W4">
-        <v>0.78469999999999995</v>
-      </c>
-      <c r="X4" s="5"/>
+        <v>8.1299999999999997E-2</v>
+      </c>
+      <c r="X4" s="201">
+        <v>34.640008999999999</v>
+      </c>
       <c r="Y4" s="5"/>
       <c r="Z4" s="5"/>
-      <c r="AA4" s="5"/>
-      <c r="AB4" s="5"/>
-      <c r="AC4" s="5"/>
+      <c r="AA4" s="201">
+        <v>1.2775289999999999</v>
+      </c>
+      <c r="AB4" s="204">
+        <f>X4/AA4</f>
+        <v>27.114851404547373</v>
+      </c>
+      <c r="AC4" s="201">
+        <v>1.8115588839100503</v>
+      </c>
       <c r="AD4">
-        <v>-27.69</v>
+        <v>-29.75</v>
       </c>
       <c r="AE4" s="5" t="s">
         <v>1161</v>
       </c>
       <c r="AF4">
-        <v>182031</v>
+        <v>182029</v>
       </c>
       <c r="AG4" s="3">
         <v>2019</v>
       </c>
       <c r="AH4">
-        <v>44.8</v>
+        <v>29</v>
       </c>
       <c r="AI4">
-        <v>2.4</v>
+        <v>3</v>
       </c>
       <c r="AK4">
-        <v>1.0535000000000001</v>
+        <v>1.0375000000000001</v>
       </c>
       <c r="AL4">
-        <v>2.3999999999999998E-3</v>
+        <v>3.0000000000000001E-3</v>
       </c>
       <c r="AO4" s="5"/>
       <c r="AP4" s="5"/>
@@ -34167,7 +34840,7 @@
       <c r="BX4" s="5"/>
       <c r="BY4" s="5"/>
     </row>
-    <row r="5" spans="1:78" ht="15" customHeight="1">
+    <row r="5" spans="1:78" ht="15.5">
       <c r="A5" s="13" t="s">
         <v>989</v>
       </c>
@@ -34180,14 +34853,14 @@
       <c r="D5" s="8" t="s">
         <v>1203</v>
       </c>
-      <c r="E5" s="8" t="s">
-        <v>1215</v>
+      <c r="E5" s="7" t="s">
+        <v>1220</v>
       </c>
       <c r="F5" s="8" t="s">
         <v>1203</v>
       </c>
       <c r="G5" s="5" t="s">
-        <v>965</v>
+        <v>964</v>
       </c>
       <c r="H5" s="8" t="s">
         <v>919</v>
@@ -34196,57 +34869,67 @@
         <v>173</v>
       </c>
       <c r="J5" s="8">
+        <v>0</v>
+      </c>
+      <c r="K5" s="8">
         <v>1.7</v>
-      </c>
-      <c r="K5" s="8" t="s">
-        <v>1218</v>
       </c>
       <c r="L5" s="4" t="s">
         <v>239</v>
       </c>
       <c r="M5" s="8" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="N5" s="5"/>
       <c r="O5" s="5"/>
       <c r="P5" s="5"/>
       <c r="Q5" s="5"/>
+      <c r="R5" s="5"/>
       <c r="S5" s="104"/>
       <c r="T5" s="104"/>
       <c r="U5" s="105"/>
       <c r="V5" s="12"/>
       <c r="W5">
-        <v>0.73499999999999999</v>
-      </c>
-      <c r="X5" s="5"/>
+        <v>0.1074</v>
+      </c>
+      <c r="X5" s="201">
+        <v>34.400706</v>
+      </c>
       <c r="Y5" s="5"/>
       <c r="Z5" s="5"/>
-      <c r="AA5" s="5"/>
-      <c r="AB5" s="5"/>
-      <c r="AC5" s="5"/>
+      <c r="AA5" s="201">
+        <v>1.106033</v>
+      </c>
+      <c r="AB5" s="204">
+        <f t="shared" ref="AB5:AB26" si="0">X5/AA5</f>
+        <v>31.102784455798332</v>
+      </c>
+      <c r="AC5" s="201">
+        <v>1.2072557466808176</v>
+      </c>
       <c r="AD5">
-        <v>-27.65</v>
+        <v>-29.59</v>
       </c>
       <c r="AE5" s="5" t="s">
         <v>1161</v>
       </c>
       <c r="AF5">
-        <v>182034</v>
+        <v>182032</v>
       </c>
       <c r="AG5" s="3">
         <v>2019</v>
       </c>
       <c r="AH5">
-        <v>52.5</v>
+        <v>30.2</v>
       </c>
       <c r="AI5">
-        <v>2.6</v>
+        <v>3.8</v>
       </c>
       <c r="AK5">
-        <v>1.0611999999999999</v>
+        <v>1.0387</v>
       </c>
       <c r="AL5">
-        <v>2.5999999999999999E-3</v>
+        <v>3.8E-3</v>
       </c>
       <c r="AO5" s="5"/>
       <c r="AP5" s="5"/>
@@ -34271,7 +34954,7 @@
       <c r="BX5" s="5"/>
       <c r="BY5" s="5"/>
     </row>
-    <row r="6" spans="1:78" ht="15" customHeight="1">
+    <row r="6" spans="1:78" ht="15.5">
       <c r="A6" s="13" t="s">
         <v>989</v>
       </c>
@@ -34284,14 +34967,14 @@
       <c r="D6" s="8" t="s">
         <v>1204</v>
       </c>
-      <c r="E6" s="8" t="s">
-        <v>1216</v>
+      <c r="E6" s="7" t="s">
+        <v>1221</v>
       </c>
       <c r="F6" s="8" t="s">
         <v>1204</v>
       </c>
       <c r="G6" s="5" t="s">
-        <v>965</v>
+        <v>964</v>
       </c>
       <c r="H6" s="8" t="s">
         <v>919</v>
@@ -34300,57 +34983,67 @@
         <v>173</v>
       </c>
       <c r="J6" s="8">
+        <v>0</v>
+      </c>
+      <c r="K6" s="8">
         <v>1.7</v>
-      </c>
-      <c r="K6" s="8" t="s">
-        <v>1218</v>
       </c>
       <c r="L6" s="4" t="s">
         <v>239</v>
       </c>
       <c r="M6" s="8" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="N6" s="5"/>
       <c r="O6" s="5"/>
       <c r="P6" s="5"/>
       <c r="Q6" s="5"/>
+      <c r="R6" s="5"/>
       <c r="S6" s="104"/>
       <c r="T6" s="104"/>
       <c r="U6" s="105"/>
       <c r="V6" s="12"/>
       <c r="W6">
-        <v>0.65629999999999999</v>
-      </c>
-      <c r="X6" s="5"/>
+        <v>0.19259999999999999</v>
+      </c>
+      <c r="X6" s="201">
+        <v>33.716819000000001</v>
+      </c>
       <c r="Y6" s="5"/>
       <c r="Z6" s="5"/>
-      <c r="AA6" s="5"/>
-      <c r="AB6" s="5"/>
-      <c r="AC6" s="5"/>
+      <c r="AA6" s="201">
+        <v>1.196056</v>
+      </c>
+      <c r="AB6" s="204">
+        <f t="shared" si="0"/>
+        <v>28.190000300989251</v>
+      </c>
+      <c r="AC6" s="201">
+        <v>1.020042235737521</v>
+      </c>
       <c r="AD6">
-        <v>-27.38</v>
+        <v>-29.92</v>
       </c>
       <c r="AE6" s="5" t="s">
         <v>1161</v>
       </c>
       <c r="AF6">
-        <v>182942</v>
+        <v>182940</v>
       </c>
       <c r="AG6" s="3">
         <v>2019</v>
       </c>
       <c r="AH6">
-        <v>52.4</v>
+        <v>34</v>
       </c>
       <c r="AI6">
-        <v>3.8</v>
+        <v>2.8</v>
       </c>
       <c r="AK6">
-        <v>1.0608</v>
+        <v>1.0423</v>
       </c>
       <c r="AL6">
-        <v>3.8E-3</v>
+        <v>2.8E-3</v>
       </c>
       <c r="AO6" s="5"/>
       <c r="AP6" s="5"/>
@@ -34375,24 +35068,24 @@
       <c r="BX6" s="5"/>
       <c r="BY6" s="5"/>
     </row>
-    <row r="7" spans="1:78" ht="15" customHeight="1">
+    <row r="7" spans="1:78" ht="26.5">
       <c r="A7" s="13" t="s">
         <v>989</v>
       </c>
-      <c r="B7" s="7" t="s">
+      <c r="B7" s="9" t="s">
         <v>999</v>
       </c>
       <c r="C7" s="8" t="s">
         <v>1011</v>
       </c>
       <c r="D7" s="8" t="s">
-        <v>1207</v>
+        <v>1202</v>
       </c>
       <c r="E7" s="8" t="s">
-        <v>1217</v>
+        <v>1232</v>
       </c>
       <c r="F7" s="8" t="s">
-        <v>1207</v>
+        <v>1202</v>
       </c>
       <c r="G7" s="5" t="s">
         <v>965</v>
@@ -34404,99 +35097,76 @@
         <v>173</v>
       </c>
       <c r="J7" s="8">
+        <v>0</v>
+      </c>
+      <c r="K7" s="8">
         <v>1.7</v>
-      </c>
-      <c r="K7" s="8" t="s">
-        <v>1218</v>
       </c>
       <c r="L7" s="4" t="s">
         <v>239</v>
       </c>
       <c r="M7" s="8" t="s">
-        <v>269</v>
-      </c>
-      <c r="N7" s="5"/>
-      <c r="O7" s="5"/>
-      <c r="P7" s="5"/>
-      <c r="Q7" s="5"/>
-      <c r="S7" s="104"/>
-      <c r="T7" s="104"/>
-      <c r="U7" s="105"/>
-      <c r="V7" s="12"/>
+        <v>268</v>
+      </c>
       <c r="W7">
-        <v>0.88139999999999996</v>
-      </c>
-      <c r="X7" s="5"/>
-      <c r="Y7" s="5"/>
-      <c r="Z7" s="5"/>
-      <c r="AA7" s="5"/>
-      <c r="AB7" s="5"/>
-      <c r="AC7" s="5"/>
+        <v>0.13400000000000001</v>
+      </c>
+      <c r="X7" s="201">
+        <v>35.206578</v>
+      </c>
+      <c r="AA7" s="201">
+        <v>1.567609</v>
+      </c>
+      <c r="AB7" s="204">
+        <f t="shared" si="0"/>
+        <v>22.458775115478414</v>
+      </c>
+      <c r="AC7" s="201">
+        <v>2.4922715271040063</v>
+      </c>
       <c r="AD7">
-        <v>-25.14</v>
+        <v>-29.9</v>
       </c>
       <c r="AE7" s="5" t="s">
         <v>1161</v>
       </c>
       <c r="AF7">
-        <v>182954</v>
+        <v>182030</v>
       </c>
       <c r="AG7" s="3">
         <v>2019</v>
       </c>
       <c r="AH7">
-        <v>-205.1</v>
+        <v>37.799999999999997</v>
       </c>
       <c r="AI7">
-        <v>2.8</v>
+        <v>3.5</v>
       </c>
       <c r="AK7">
-        <v>0.80130000000000001</v>
+        <v>1.0463</v>
       </c>
       <c r="AL7">
-        <v>2.8E-3</v>
-      </c>
-      <c r="AO7" s="5"/>
-      <c r="AP7" s="5"/>
-      <c r="AQ7" s="5"/>
-      <c r="AR7" s="5"/>
-      <c r="AS7" s="5"/>
-      <c r="AT7" s="5"/>
-      <c r="AU7" s="5"/>
-      <c r="AV7" s="5"/>
-      <c r="BL7" s="5"/>
-      <c r="BM7" s="5"/>
-      <c r="BN7" s="5"/>
-      <c r="BO7" s="5"/>
-      <c r="BP7" s="5"/>
-      <c r="BQ7" s="5"/>
-      <c r="BR7" s="5"/>
-      <c r="BS7" s="5"/>
-      <c r="BT7" s="5"/>
-      <c r="BU7" s="5"/>
-      <c r="BV7" s="5"/>
-      <c r="BW7" s="5"/>
-      <c r="BX7" s="5"/>
-      <c r="BY7" s="5"/>
-    </row>
-    <row r="8" spans="1:78" ht="14.5">
+        <v>3.5000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:78" ht="26.5">
       <c r="A8" s="13" t="s">
         <v>989</v>
       </c>
-      <c r="B8" s="7" t="s">
-        <v>1000</v>
+      <c r="B8" s="9" t="s">
+        <v>999</v>
       </c>
       <c r="C8" s="8" t="s">
-        <v>1016</v>
+        <v>1012</v>
       </c>
       <c r="D8" s="8" t="s">
-        <v>1209</v>
+        <v>1203</v>
       </c>
       <c r="E8" s="8" t="s">
-        <v>1223</v>
+        <v>1231</v>
       </c>
       <c r="F8" s="8" t="s">
-        <v>1209</v>
+        <v>1203</v>
       </c>
       <c r="G8" s="5" t="s">
         <v>965</v>
@@ -34508,99 +35178,76 @@
         <v>173</v>
       </c>
       <c r="J8" s="8">
+        <v>0</v>
+      </c>
+      <c r="K8" s="8">
         <v>1.7</v>
-      </c>
-      <c r="K8" s="8" t="s">
-        <v>1218</v>
       </c>
       <c r="L8" s="4" t="s">
         <v>239</v>
       </c>
       <c r="M8" s="8" t="s">
-        <v>269</v>
-      </c>
-      <c r="N8" s="5"/>
-      <c r="O8" s="5"/>
-      <c r="P8" s="5"/>
-      <c r="Q8" s="5"/>
-      <c r="S8" s="104"/>
-      <c r="T8" s="104"/>
-      <c r="U8" s="105"/>
-      <c r="V8" s="12"/>
+        <v>268</v>
+      </c>
       <c r="W8">
-        <v>0.71450000000000002</v>
-      </c>
-      <c r="X8" s="5"/>
-      <c r="Y8" s="5"/>
-      <c r="Z8" s="5"/>
-      <c r="AA8" s="5"/>
-      <c r="AB8" s="5"/>
-      <c r="AC8" s="5"/>
+        <v>0.1575</v>
+      </c>
+      <c r="X8" s="201">
+        <v>35.392769000000001</v>
+      </c>
+      <c r="AA8" s="201">
+        <v>1.480829</v>
+      </c>
+      <c r="AB8" s="204">
+        <f t="shared" si="0"/>
+        <v>23.900645516801738</v>
+      </c>
+      <c r="AC8" s="201">
+        <v>1.9328393745169792</v>
+      </c>
       <c r="AD8">
-        <v>-28.37</v>
+        <v>-29.64</v>
       </c>
       <c r="AE8" s="5" t="s">
         <v>1161</v>
       </c>
       <c r="AF8">
-        <v>182043</v>
+        <v>182033</v>
       </c>
       <c r="AG8" s="3">
         <v>2019</v>
       </c>
       <c r="AH8">
-        <v>90.5</v>
+        <v>34.200000000000003</v>
       </c>
       <c r="AI8">
-        <v>3.8</v>
+        <v>2.4</v>
       </c>
       <c r="AK8">
-        <v>1.0994999999999999</v>
+        <v>1.0427</v>
       </c>
       <c r="AL8">
-        <v>3.8E-3</v>
-      </c>
-      <c r="AO8" s="5"/>
-      <c r="AP8" s="5"/>
-      <c r="AQ8" s="5"/>
-      <c r="AR8" s="5"/>
-      <c r="AS8" s="5"/>
-      <c r="AT8" s="5"/>
-      <c r="AU8" s="5"/>
-      <c r="AV8" s="5"/>
-      <c r="BL8" s="5"/>
-      <c r="BM8" s="5"/>
-      <c r="BN8" s="5"/>
-      <c r="BO8" s="5"/>
-      <c r="BP8" s="5"/>
-      <c r="BQ8" s="5"/>
-      <c r="BR8" s="5"/>
-      <c r="BS8" s="5"/>
-      <c r="BT8" s="5"/>
-      <c r="BU8" s="5"/>
-      <c r="BV8" s="5"/>
-      <c r="BW8" s="5"/>
-      <c r="BX8" s="5"/>
-      <c r="BY8" s="5"/>
-    </row>
-    <row r="9" spans="1:78" ht="14.5">
+        <v>2.3999999999999998E-3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:78" ht="26.5">
       <c r="A9" s="13" t="s">
         <v>989</v>
       </c>
-      <c r="B9" s="7" t="s">
-        <v>1000</v>
+      <c r="B9" s="9" t="s">
+        <v>999</v>
       </c>
       <c r="C9" s="8" t="s">
-        <v>1014</v>
+        <v>1013</v>
       </c>
       <c r="D9" s="8" t="s">
-        <v>1210</v>
+        <v>1204</v>
       </c>
       <c r="E9" s="8" t="s">
-        <v>1224</v>
+        <v>1233</v>
       </c>
       <c r="F9" s="8" t="s">
-        <v>1210</v>
+        <v>1204</v>
       </c>
       <c r="G9" s="5" t="s">
         <v>965</v>
@@ -34612,99 +35259,76 @@
         <v>173</v>
       </c>
       <c r="J9" s="8">
+        <v>0</v>
+      </c>
+      <c r="K9" s="8">
         <v>1.7</v>
-      </c>
-      <c r="K9" s="8" t="s">
-        <v>1218</v>
       </c>
       <c r="L9" s="4" t="s">
         <v>239</v>
       </c>
       <c r="M9" s="8" t="s">
-        <v>269</v>
-      </c>
-      <c r="N9" s="5"/>
-      <c r="O9" s="5"/>
-      <c r="P9" s="5"/>
-      <c r="Q9" s="5"/>
-      <c r="S9" s="104"/>
-      <c r="T9" s="104"/>
-      <c r="U9" s="105"/>
-      <c r="V9" s="12"/>
+        <v>268</v>
+      </c>
       <c r="W9">
-        <v>0.8075</v>
-      </c>
-      <c r="X9" s="5"/>
-      <c r="Y9" s="5"/>
-      <c r="Z9" s="5"/>
-      <c r="AA9" s="5"/>
-      <c r="AB9" s="5"/>
-      <c r="AC9" s="5"/>
+        <v>0.15110000000000001</v>
+      </c>
+      <c r="X9" s="201">
+        <v>36.387278000000002</v>
+      </c>
+      <c r="AA9" s="201">
+        <v>1.538322</v>
+      </c>
+      <c r="AB9" s="204">
+        <f t="shared" si="0"/>
+        <v>23.653876106562866</v>
+      </c>
+      <c r="AC9" s="201">
+        <v>1.5283029011723113</v>
+      </c>
       <c r="AD9">
-        <v>-28.08</v>
+        <v>-29.84</v>
       </c>
       <c r="AE9" s="5" t="s">
         <v>1161</v>
       </c>
       <c r="AF9">
-        <v>182046</v>
+        <v>182941</v>
       </c>
       <c r="AG9" s="3">
         <v>2019</v>
       </c>
       <c r="AH9">
-        <v>52.8</v>
+        <v>53.3</v>
       </c>
       <c r="AI9">
-        <v>2.9</v>
+        <v>4</v>
       </c>
       <c r="AK9">
-        <v>1.0615000000000001</v>
+        <v>1.0617000000000001</v>
       </c>
       <c r="AL9">
-        <v>2.8999999999999998E-3</v>
-      </c>
-      <c r="AO9" s="5"/>
-      <c r="AP9" s="5"/>
-      <c r="AQ9" s="5"/>
-      <c r="AR9" s="5"/>
-      <c r="AS9" s="5"/>
-      <c r="AT9" s="5"/>
-      <c r="AU9" s="5"/>
-      <c r="AV9" s="5"/>
-      <c r="BL9" s="5"/>
-      <c r="BM9" s="5"/>
-      <c r="BN9" s="5"/>
-      <c r="BO9" s="5"/>
-      <c r="BP9" s="5"/>
-      <c r="BQ9" s="5"/>
-      <c r="BR9" s="5"/>
-      <c r="BS9" s="5"/>
-      <c r="BT9" s="5"/>
-      <c r="BU9" s="5"/>
-      <c r="BV9" s="5"/>
-      <c r="BW9" s="5"/>
-      <c r="BX9" s="5"/>
-      <c r="BY9" s="5"/>
-    </row>
-    <row r="10" spans="1:78" ht="14.5">
+        <v>4.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:78" ht="15" customHeight="1">
       <c r="A10" s="13" t="s">
         <v>989</v>
       </c>
       <c r="B10" s="7" t="s">
-        <v>1000</v>
+        <v>999</v>
       </c>
       <c r="C10" s="8" t="s">
-        <v>1015</v>
+        <v>1011</v>
       </c>
       <c r="D10" s="8" t="s">
-        <v>1211</v>
+        <v>1202</v>
       </c>
       <c r="E10" s="8" t="s">
-        <v>1225</v>
+        <v>1214</v>
       </c>
       <c r="F10" s="8" t="s">
-        <v>1211</v>
+        <v>1202</v>
       </c>
       <c r="G10" s="5" t="s">
         <v>965</v>
@@ -34736,37 +35360,46 @@
       <c r="U10" s="105"/>
       <c r="V10" s="12"/>
       <c r="W10">
-        <v>0.71609999999999996</v>
-      </c>
-      <c r="X10" s="5"/>
+        <v>0.78469999999999995</v>
+      </c>
+      <c r="X10" s="201">
+        <v>3.8790969999999998</v>
+      </c>
       <c r="Y10" s="5"/>
       <c r="Z10" s="5"/>
-      <c r="AA10" s="5"/>
-      <c r="AB10" s="5"/>
-      <c r="AC10" s="5"/>
+      <c r="AA10" s="201">
+        <v>0.37</v>
+      </c>
+      <c r="AB10" s="204">
+        <f t="shared" si="0"/>
+        <v>10.484045945945946</v>
+      </c>
+      <c r="AC10" s="201">
+        <v>4.8403293664214679</v>
+      </c>
       <c r="AD10">
-        <v>-27.49</v>
+        <v>-27.69</v>
       </c>
       <c r="AE10" s="5" t="s">
         <v>1161</v>
       </c>
       <c r="AF10">
-        <v>183091</v>
+        <v>182031</v>
       </c>
       <c r="AG10" s="3">
         <v>2019</v>
       </c>
       <c r="AH10">
-        <v>60.5</v>
+        <v>44.8</v>
       </c>
       <c r="AI10">
-        <v>2.7</v>
+        <v>2.4</v>
       </c>
       <c r="AK10">
-        <v>1.069</v>
+        <v>1.0535000000000001</v>
       </c>
       <c r="AL10">
-        <v>2.7000000000000001E-3</v>
+        <v>2.3999999999999998E-3</v>
       </c>
       <c r="AO10" s="5"/>
       <c r="AP10" s="5"/>
@@ -34791,24 +35424,24 @@
       <c r="BX10" s="5"/>
       <c r="BY10" s="5"/>
     </row>
-    <row r="11" spans="1:78" ht="14.5">
+    <row r="11" spans="1:78" ht="15" customHeight="1">
       <c r="A11" s="13" t="s">
         <v>989</v>
       </c>
       <c r="B11" s="7" t="s">
-        <v>1000</v>
+        <v>999</v>
       </c>
       <c r="C11" s="8" t="s">
-        <v>1016</v>
+        <v>1012</v>
       </c>
       <c r="D11" s="8" t="s">
-        <v>1213</v>
+        <v>1203</v>
       </c>
       <c r="E11" s="8" t="s">
-        <v>1226</v>
+        <v>1215</v>
       </c>
       <c r="F11" s="8" t="s">
-        <v>1213</v>
+        <v>1203</v>
       </c>
       <c r="G11" s="5" t="s">
         <v>965</v>
@@ -34840,37 +35473,46 @@
       <c r="U11" s="105"/>
       <c r="V11" s="12"/>
       <c r="W11">
-        <v>0.95520000000000005</v>
-      </c>
-      <c r="X11" s="5"/>
+        <v>0.73499999999999999</v>
+      </c>
+      <c r="X11" s="201">
+        <v>4.1770350000000001</v>
+      </c>
       <c r="Y11" s="5"/>
       <c r="Z11" s="5"/>
-      <c r="AA11" s="5"/>
-      <c r="AB11" s="5"/>
-      <c r="AC11" s="5"/>
+      <c r="AA11" s="201">
+        <v>0.41703600000000002</v>
+      </c>
+      <c r="AB11" s="204">
+        <f t="shared" si="0"/>
+        <v>10.016005812447846</v>
+      </c>
+      <c r="AC11" s="201">
+        <v>4.5108177015203026</v>
+      </c>
       <c r="AD11">
-        <v>-24.87</v>
+        <v>-27.65</v>
       </c>
       <c r="AE11" s="5" t="s">
         <v>1161</v>
       </c>
       <c r="AF11">
-        <v>182961</v>
+        <v>182034</v>
       </c>
       <c r="AG11" s="3">
         <v>2019</v>
       </c>
       <c r="AH11">
-        <v>-135.6</v>
+        <v>52.5</v>
       </c>
       <c r="AI11">
-        <v>3.6</v>
+        <v>2.6</v>
       </c>
       <c r="AK11">
-        <v>0.87129999999999996</v>
+        <v>1.0611999999999999</v>
       </c>
       <c r="AL11">
-        <v>3.5999999999999999E-3</v>
+        <v>2.5999999999999999E-3</v>
       </c>
       <c r="AO11" s="5"/>
       <c r="AP11" s="5"/>
@@ -34895,7 +35537,7 @@
       <c r="BX11" s="5"/>
       <c r="BY11" s="5"/>
     </row>
-    <row r="12" spans="1:78" ht="14.5">
+    <row r="12" spans="1:78" ht="15" customHeight="1">
       <c r="A12" s="13" t="s">
         <v>989</v>
       </c>
@@ -34903,19 +35545,19 @@
         <v>999</v>
       </c>
       <c r="C12" s="8" t="s">
-        <v>1011</v>
+        <v>1013</v>
       </c>
       <c r="D12" s="8" t="s">
-        <v>1202</v>
-      </c>
-      <c r="E12" s="7" t="s">
-        <v>1219</v>
+        <v>1204</v>
+      </c>
+      <c r="E12" s="8" t="s">
+        <v>1216</v>
       </c>
       <c r="F12" s="8" t="s">
-        <v>1202</v>
+        <v>1204</v>
       </c>
       <c r="G12" s="5" t="s">
-        <v>964</v>
+        <v>965</v>
       </c>
       <c r="H12" s="8" t="s">
         <v>919</v>
@@ -34924,58 +35566,66 @@
         <v>173</v>
       </c>
       <c r="J12" s="8">
-        <v>0</v>
-      </c>
-      <c r="K12" s="8">
         <v>1.7</v>
+      </c>
+      <c r="K12" s="8" t="s">
+        <v>1218</v>
       </c>
       <c r="L12" s="4" t="s">
         <v>239</v>
       </c>
       <c r="M12" s="8" t="s">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="N12" s="5"/>
       <c r="O12" s="5"/>
       <c r="P12" s="5"/>
       <c r="Q12" s="5"/>
-      <c r="R12" s="5"/>
       <c r="S12" s="104"/>
       <c r="T12" s="104"/>
       <c r="U12" s="105"/>
       <c r="V12" s="12"/>
       <c r="W12">
-        <v>8.1299999999999997E-2</v>
-      </c>
-      <c r="X12" s="5"/>
+        <v>0.65629999999999999</v>
+      </c>
+      <c r="X12" s="201">
+        <v>3.359699</v>
+      </c>
       <c r="Y12" s="5"/>
       <c r="Z12" s="5"/>
-      <c r="AA12" s="5"/>
-      <c r="AB12" s="5"/>
-      <c r="AC12" s="5"/>
+      <c r="AA12" s="201">
+        <v>0.34322399999999997</v>
+      </c>
+      <c r="AB12" s="204">
+        <f t="shared" si="0"/>
+        <v>9.7886482297275261</v>
+      </c>
+      <c r="AC12" s="201">
+        <v>4.3184384823591451</v>
+      </c>
       <c r="AD12">
-        <v>-29.75</v>
+        <v>-27.38</v>
       </c>
       <c r="AE12" s="5" t="s">
         <v>1161</v>
       </c>
       <c r="AF12">
-        <v>182029</v>
+        <v>182942</v>
       </c>
       <c r="AG12" s="3">
         <v>2019</v>
       </c>
       <c r="AH12">
-        <v>29</v>
+        <v>52.4</v>
       </c>
       <c r="AI12">
-        <v>3</v>
+        <v>3.8</v>
       </c>
       <c r="AK12">
-        <v>1.0375000000000001</v>
+        <v>1.0608</v>
       </c>
       <c r="AL12">
-        <v>3.0000000000000001E-3</v>
+        <v>3.8E-3</v>
       </c>
       <c r="AO12" s="5"/>
       <c r="AP12" s="5"/>
@@ -35000,7 +35650,7 @@
       <c r="BX12" s="5"/>
       <c r="BY12" s="5"/>
     </row>
-    <row r="13" spans="1:78" ht="14.5">
+    <row r="13" spans="1:78" ht="15.5">
       <c r="A13" s="13" t="s">
         <v>989</v>
       </c>
@@ -35008,16 +35658,16 @@
         <v>999</v>
       </c>
       <c r="C13" s="8" t="s">
-        <v>1012</v>
+        <v>1011</v>
       </c>
       <c r="D13" s="8" t="s">
-        <v>1203</v>
+        <v>1207</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>1220</v>
+        <v>1222</v>
       </c>
       <c r="F13" s="8" t="s">
-        <v>1203</v>
+        <v>1207</v>
       </c>
       <c r="G13" s="5" t="s">
         <v>964</v>
@@ -35050,37 +35700,46 @@
       <c r="U13" s="105"/>
       <c r="V13" s="12"/>
       <c r="W13">
-        <v>0.1074</v>
-      </c>
-      <c r="X13" s="5"/>
+        <v>1.4800000000000001E-2</v>
+      </c>
+      <c r="X13" s="201">
+        <v>39.893721999999997</v>
+      </c>
       <c r="Y13" s="5"/>
       <c r="Z13" s="5"/>
-      <c r="AA13" s="5"/>
-      <c r="AB13" s="5"/>
-      <c r="AC13" s="5"/>
+      <c r="AA13" s="201">
+        <v>0.87586600000000003</v>
+      </c>
+      <c r="AB13" s="204">
+        <f t="shared" si="0"/>
+        <v>45.547745888069628</v>
+      </c>
+      <c r="AC13" s="201">
+        <v>1.8019520123487129</v>
+      </c>
       <c r="AD13">
-        <v>-29.59</v>
+        <v>-29.14</v>
       </c>
       <c r="AE13" s="5" t="s">
         <v>1161</v>
       </c>
       <c r="AF13">
-        <v>182032</v>
+        <v>182953</v>
       </c>
       <c r="AG13" s="3">
         <v>2019</v>
       </c>
       <c r="AH13">
-        <v>30.2</v>
+        <v>43.7</v>
       </c>
       <c r="AI13">
-        <v>3.8</v>
+        <v>2.9</v>
       </c>
       <c r="AK13">
-        <v>1.0387</v>
+        <v>1.052</v>
       </c>
       <c r="AL13">
-        <v>3.8E-3</v>
+        <v>2.8999999999999998E-3</v>
       </c>
       <c r="AO13" s="5"/>
       <c r="AP13" s="5"/>
@@ -35105,7 +35764,7 @@
       <c r="BX13" s="5"/>
       <c r="BY13" s="5"/>
     </row>
-    <row r="14" spans="1:78" ht="14.5">
+    <row r="14" spans="1:78" ht="15" customHeight="1">
       <c r="A14" s="13" t="s">
         <v>989</v>
       </c>
@@ -35113,19 +35772,19 @@
         <v>999</v>
       </c>
       <c r="C14" s="8" t="s">
-        <v>1013</v>
+        <v>1011</v>
       </c>
       <c r="D14" s="8" t="s">
-        <v>1204</v>
-      </c>
-      <c r="E14" s="7" t="s">
-        <v>1221</v>
+        <v>1207</v>
+      </c>
+      <c r="E14" s="8" t="s">
+        <v>1217</v>
       </c>
       <c r="F14" s="8" t="s">
-        <v>1204</v>
+        <v>1207</v>
       </c>
       <c r="G14" s="5" t="s">
-        <v>964</v>
+        <v>965</v>
       </c>
       <c r="H14" s="8" t="s">
         <v>919</v>
@@ -35134,55 +35793,63 @@
         <v>173</v>
       </c>
       <c r="J14" s="8">
-        <v>0</v>
-      </c>
-      <c r="K14" s="8">
         <v>1.7</v>
+      </c>
+      <c r="K14" s="8" t="s">
+        <v>1218</v>
       </c>
       <c r="L14" s="4" t="s">
         <v>239</v>
       </c>
       <c r="M14" s="8" t="s">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="N14" s="5"/>
       <c r="O14" s="5"/>
       <c r="P14" s="5"/>
       <c r="Q14" s="5"/>
-      <c r="R14" s="5"/>
       <c r="S14" s="104"/>
       <c r="T14" s="104"/>
       <c r="U14" s="105"/>
       <c r="V14" s="12"/>
       <c r="W14">
-        <v>0.19259999999999999</v>
-      </c>
-      <c r="X14" s="5"/>
+        <v>0.88139999999999996</v>
+      </c>
+      <c r="X14" s="201">
+        <v>0.55342400000000003</v>
+      </c>
       <c r="Y14" s="5"/>
       <c r="Z14" s="5"/>
-      <c r="AA14" s="5"/>
-      <c r="AB14" s="5"/>
-      <c r="AC14" s="5"/>
+      <c r="AA14" s="201">
+        <v>6.4599000000000004E-2</v>
+      </c>
+      <c r="AB14" s="204">
+        <f t="shared" si="0"/>
+        <v>8.5670676016656611</v>
+      </c>
+      <c r="AC14" s="201">
+        <v>4.4405903069495638</v>
+      </c>
       <c r="AD14">
-        <v>-29.92</v>
+        <v>-25.14</v>
       </c>
       <c r="AE14" s="5" t="s">
         <v>1161</v>
       </c>
       <c r="AF14">
-        <v>182940</v>
+        <v>182954</v>
       </c>
       <c r="AG14" s="3">
         <v>2019</v>
       </c>
       <c r="AH14">
-        <v>34</v>
+        <v>-205.1</v>
       </c>
       <c r="AI14">
         <v>2.8</v>
       </c>
       <c r="AK14">
-        <v>1.0423</v>
+        <v>0.80130000000000001</v>
       </c>
       <c r="AL14">
         <v>2.8E-3</v>
@@ -35210,24 +35877,24 @@
       <c r="BX14" s="5"/>
       <c r="BY14" s="5"/>
     </row>
-    <row r="15" spans="1:78" ht="14.5">
+    <row r="15" spans="1:78" ht="15.5">
       <c r="A15" s="13" t="s">
         <v>989</v>
       </c>
       <c r="B15" s="7" t="s">
-        <v>999</v>
+        <v>1000</v>
       </c>
       <c r="C15" s="8" t="s">
-        <v>1011</v>
+        <v>1016</v>
       </c>
       <c r="D15" s="8" t="s">
-        <v>1207</v>
-      </c>
-      <c r="E15" s="7" t="s">
-        <v>1222</v>
+        <v>1209</v>
+      </c>
+      <c r="E15" s="8" t="s">
+        <v>1227</v>
       </c>
       <c r="F15" s="8" t="s">
-        <v>1207</v>
+        <v>1209</v>
       </c>
       <c r="G15" s="5" t="s">
         <v>964</v>
@@ -35260,37 +35927,46 @@
       <c r="U15" s="105"/>
       <c r="V15" s="12"/>
       <c r="W15">
-        <v>1.4800000000000001E-2</v>
-      </c>
-      <c r="X15" s="5"/>
+        <v>0.1045</v>
+      </c>
+      <c r="X15" s="201">
+        <v>37.846291000000001</v>
+      </c>
       <c r="Y15" s="5"/>
       <c r="Z15" s="5"/>
-      <c r="AA15" s="5"/>
-      <c r="AB15" s="5"/>
-      <c r="AC15" s="5"/>
+      <c r="AA15" s="201">
+        <v>1.3003480000000001</v>
+      </c>
+      <c r="AB15" s="204">
+        <f t="shared" si="0"/>
+        <v>29.104740423332832</v>
+      </c>
+      <c r="AC15" s="201">
+        <v>1.8109097419923654</v>
+      </c>
       <c r="AD15">
-        <v>-29.14</v>
+        <v>-30.03</v>
       </c>
       <c r="AE15" s="5" t="s">
         <v>1161</v>
       </c>
       <c r="AF15">
-        <v>182953</v>
+        <v>182041</v>
       </c>
       <c r="AG15" s="3">
         <v>2019</v>
       </c>
       <c r="AH15">
-        <v>43.7</v>
+        <v>46.7</v>
       </c>
       <c r="AI15">
-        <v>2.9</v>
+        <v>3.9</v>
       </c>
       <c r="AK15">
-        <v>1.052</v>
+        <v>1.0553999999999999</v>
       </c>
       <c r="AL15">
-        <v>2.8999999999999998E-3</v>
+        <v>3.8999999999999998E-3</v>
       </c>
       <c r="AO15" s="5"/>
       <c r="AP15" s="5"/>
@@ -35315,7 +35991,7 @@
       <c r="BX15" s="5"/>
       <c r="BY15" s="5"/>
     </row>
-    <row r="16" spans="1:78" ht="14.5">
+    <row r="16" spans="1:78" ht="15.5">
       <c r="A16" s="13" t="s">
         <v>989</v>
       </c>
@@ -35323,16 +35999,16 @@
         <v>1000</v>
       </c>
       <c r="C16" s="8" t="s">
-        <v>1016</v>
+        <v>1014</v>
       </c>
       <c r="D16" s="8" t="s">
-        <v>1209</v>
+        <v>1210</v>
       </c>
       <c r="E16" s="8" t="s">
-        <v>1227</v>
+        <v>1228</v>
       </c>
       <c r="F16" s="8" t="s">
-        <v>1209</v>
+        <v>1210</v>
       </c>
       <c r="G16" s="5" t="s">
         <v>964</v>
@@ -35365,37 +36041,46 @@
       <c r="U16" s="105"/>
       <c r="V16" s="12"/>
       <c r="W16">
-        <v>0.1045</v>
-      </c>
-      <c r="X16" s="5"/>
+        <v>7.7899999999999997E-2</v>
+      </c>
+      <c r="X16" s="201">
+        <v>38.545324999999998</v>
+      </c>
       <c r="Y16" s="5"/>
       <c r="Z16" s="5"/>
-      <c r="AA16" s="5"/>
-      <c r="AB16" s="5"/>
-      <c r="AC16" s="5"/>
+      <c r="AA16" s="201">
+        <v>1.5383260000000001</v>
+      </c>
+      <c r="AB16" s="204">
+        <f t="shared" si="0"/>
+        <v>25.056668742516212</v>
+      </c>
+      <c r="AC16" s="201">
+        <v>2.4488636179995624</v>
+      </c>
       <c r="AD16">
-        <v>-30.03</v>
+        <v>-30.33</v>
       </c>
       <c r="AE16" s="5" t="s">
         <v>1161</v>
       </c>
       <c r="AF16">
-        <v>182041</v>
+        <v>182044</v>
       </c>
       <c r="AG16" s="3">
         <v>2019</v>
       </c>
       <c r="AH16">
-        <v>46.7</v>
+        <v>30.5</v>
       </c>
       <c r="AI16">
-        <v>3.9</v>
+        <v>2.5</v>
       </c>
       <c r="AK16">
-        <v>1.0553999999999999</v>
+        <v>1.0389999999999999</v>
       </c>
       <c r="AL16">
-        <v>3.8999999999999998E-3</v>
+        <v>2.5000000000000001E-3</v>
       </c>
       <c r="AO16" s="5"/>
       <c r="AP16" s="5"/>
@@ -35420,7 +36105,7 @@
       <c r="BX16" s="5"/>
       <c r="BY16" s="5"/>
     </row>
-    <row r="17" spans="1:77" ht="14.5">
+    <row r="17" spans="1:77" ht="15.5">
       <c r="A17" s="13" t="s">
         <v>989</v>
       </c>
@@ -35428,16 +36113,16 @@
         <v>1000</v>
       </c>
       <c r="C17" s="8" t="s">
-        <v>1014</v>
+        <v>1015</v>
       </c>
       <c r="D17" s="8" t="s">
-        <v>1210</v>
+        <v>1211</v>
       </c>
       <c r="E17" s="8" t="s">
-        <v>1228</v>
+        <v>1229</v>
       </c>
       <c r="F17" s="8" t="s">
-        <v>1210</v>
+        <v>1211</v>
       </c>
       <c r="G17" s="5" t="s">
         <v>964</v>
@@ -35470,37 +36155,46 @@
       <c r="U17" s="105"/>
       <c r="V17" s="12"/>
       <c r="W17">
-        <v>7.7899999999999997E-2</v>
-      </c>
-      <c r="X17" s="5"/>
+        <v>0.1318</v>
+      </c>
+      <c r="X17" s="201">
+        <v>38.715522</v>
+      </c>
       <c r="Y17" s="5"/>
       <c r="Z17" s="5"/>
-      <c r="AA17" s="5"/>
-      <c r="AB17" s="5"/>
-      <c r="AC17" s="5"/>
+      <c r="AA17" s="201">
+        <v>1.1940930000000001</v>
+      </c>
+      <c r="AB17" s="204">
+        <f t="shared" si="0"/>
+        <v>32.422534928183985</v>
+      </c>
+      <c r="AC17" s="201">
+        <v>1.5155887782380817</v>
+      </c>
       <c r="AD17">
-        <v>-30.33</v>
+        <v>-30.17</v>
       </c>
       <c r="AE17" s="5" t="s">
         <v>1161</v>
       </c>
       <c r="AF17">
-        <v>182044</v>
+        <v>182952</v>
       </c>
       <c r="AG17" s="3">
         <v>2019</v>
       </c>
       <c r="AH17">
-        <v>30.5</v>
+        <v>30.8</v>
       </c>
       <c r="AI17">
-        <v>2.5</v>
+        <v>2.9</v>
       </c>
       <c r="AK17">
-        <v>1.0389999999999999</v>
+        <v>1.0390999999999999</v>
       </c>
       <c r="AL17">
-        <v>2.5000000000000001E-3</v>
+        <v>2.8999999999999998E-3</v>
       </c>
       <c r="AO17" s="5"/>
       <c r="AP17" s="5"/>
@@ -35525,27 +36219,27 @@
       <c r="BX17" s="5"/>
       <c r="BY17" s="5"/>
     </row>
-    <row r="18" spans="1:77" ht="14.5">
+    <row r="18" spans="1:77" ht="26.5">
       <c r="A18" s="13" t="s">
         <v>989</v>
       </c>
-      <c r="B18" s="7" t="s">
+      <c r="B18" s="9" t="s">
         <v>1000</v>
       </c>
       <c r="C18" s="8" t="s">
-        <v>1015</v>
+        <v>1016</v>
       </c>
       <c r="D18" s="8" t="s">
-        <v>1211</v>
+        <v>1209</v>
       </c>
       <c r="E18" s="8" t="s">
-        <v>1229</v>
+        <v>1234</v>
       </c>
       <c r="F18" s="8" t="s">
-        <v>1211</v>
+        <v>1209</v>
       </c>
       <c r="G18" s="5" t="s">
-        <v>964</v>
+        <v>965</v>
       </c>
       <c r="H18" s="8" t="s">
         <v>919</v>
@@ -35563,94 +36257,70 @@
         <v>239</v>
       </c>
       <c r="M18" s="8" t="s">
-        <v>267</v>
-      </c>
-      <c r="N18" s="5"/>
-      <c r="O18" s="5"/>
-      <c r="P18" s="5"/>
-      <c r="Q18" s="5"/>
-      <c r="R18" s="5"/>
-      <c r="S18" s="104"/>
-      <c r="T18" s="104"/>
-      <c r="U18" s="105"/>
-      <c r="V18" s="12"/>
+        <v>268</v>
+      </c>
       <c r="W18">
-        <v>0.1318</v>
-      </c>
-      <c r="X18" s="5"/>
-      <c r="Y18" s="5"/>
-      <c r="Z18" s="5"/>
-      <c r="AA18" s="5"/>
-      <c r="AB18" s="5"/>
-      <c r="AC18" s="5"/>
+        <v>0.13400000000000001</v>
+      </c>
+      <c r="X18" s="201">
+        <v>38.557544</v>
+      </c>
+      <c r="AA18" s="201">
+        <v>1.3096620000000001</v>
+      </c>
+      <c r="AB18" s="204">
+        <f t="shared" si="0"/>
+        <v>29.440835879791884</v>
+      </c>
+      <c r="AC18" s="201">
+        <v>1.6540133723160142</v>
+      </c>
       <c r="AD18">
-        <v>-30.17</v>
+        <v>-29.88</v>
       </c>
       <c r="AE18" s="5" t="s">
         <v>1161</v>
       </c>
       <c r="AF18">
-        <v>182952</v>
+        <v>182042</v>
       </c>
       <c r="AG18" s="3">
         <v>2019</v>
       </c>
       <c r="AH18">
-        <v>30.8</v>
+        <v>74.2</v>
       </c>
       <c r="AI18">
-        <v>2.9</v>
+        <v>2.5</v>
       </c>
       <c r="AK18">
-        <v>1.0390999999999999</v>
+        <v>1.0831</v>
       </c>
       <c r="AL18">
-        <v>2.8999999999999998E-3</v>
-      </c>
-      <c r="AO18" s="5"/>
-      <c r="AP18" s="5"/>
-      <c r="AQ18" s="5"/>
-      <c r="AR18" s="5"/>
-      <c r="AS18" s="5"/>
-      <c r="AT18" s="5"/>
-      <c r="AU18" s="5"/>
-      <c r="AV18" s="5"/>
-      <c r="BL18" s="5"/>
-      <c r="BM18" s="5"/>
-      <c r="BN18" s="5"/>
-      <c r="BO18" s="5"/>
-      <c r="BP18" s="5"/>
-      <c r="BQ18" s="5"/>
-      <c r="BR18" s="5"/>
-      <c r="BS18" s="5"/>
-      <c r="BT18" s="5"/>
-      <c r="BU18" s="5"/>
-      <c r="BV18" s="5"/>
-      <c r="BW18" s="5"/>
-      <c r="BX18" s="5"/>
-      <c r="BY18" s="5"/>
-    </row>
-    <row r="19" spans="1:77" ht="14.5">
+        <v>2.5000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="19" spans="1:77" ht="26.5">
       <c r="A19" s="13" t="s">
         <v>989</v>
       </c>
-      <c r="B19" s="7" t="s">
+      <c r="B19" s="9" t="s">
         <v>1000</v>
       </c>
       <c r="C19" s="8" t="s">
-        <v>1016</v>
+        <v>1014</v>
       </c>
       <c r="D19" s="8" t="s">
-        <v>1213</v>
+        <v>1210</v>
       </c>
       <c r="E19" s="8" t="s">
-        <v>1230</v>
+        <v>1235</v>
       </c>
       <c r="F19" s="8" t="s">
-        <v>1213</v>
+        <v>1210</v>
       </c>
       <c r="G19" s="5" t="s">
-        <v>964</v>
+        <v>965</v>
       </c>
       <c r="H19" s="8" t="s">
         <v>919</v>
@@ -35668,91 +36338,67 @@
         <v>239</v>
       </c>
       <c r="M19" s="8" t="s">
-        <v>267</v>
-      </c>
-      <c r="N19" s="5"/>
-      <c r="O19" s="5"/>
-      <c r="P19" s="5"/>
-      <c r="Q19" s="5"/>
-      <c r="R19" s="5"/>
-      <c r="S19" s="104"/>
-      <c r="T19" s="104"/>
-      <c r="U19" s="105"/>
-      <c r="V19" s="12"/>
+        <v>268</v>
+      </c>
       <c r="W19">
-        <v>2.7400000000000001E-2</v>
-      </c>
-      <c r="X19" s="5"/>
-      <c r="Y19" s="5"/>
-      <c r="Z19" s="5"/>
-      <c r="AA19" s="5"/>
-      <c r="AB19" s="5"/>
-      <c r="AC19" s="5"/>
+        <v>0.1575</v>
+      </c>
+      <c r="X19" s="201">
+        <v>36.699303</v>
+      </c>
+      <c r="AA19" s="201">
+        <v>1.718464</v>
+      </c>
+      <c r="AB19" s="204">
+        <f t="shared" si="0"/>
+        <v>21.355875363114968</v>
+      </c>
+      <c r="AC19" s="201">
+        <v>2.9807864219029829</v>
+      </c>
       <c r="AD19">
-        <v>-29.48</v>
+        <v>-30.26</v>
       </c>
       <c r="AE19" s="5" t="s">
         <v>1161</v>
       </c>
       <c r="AF19">
-        <v>182960</v>
+        <v>182045</v>
       </c>
       <c r="AG19" s="3">
         <v>2019</v>
       </c>
       <c r="AH19">
-        <v>-33</v>
+        <v>56.2</v>
       </c>
       <c r="AI19">
-        <v>3.7</v>
+        <v>2.5</v>
       </c>
       <c r="AK19">
-        <v>0.97470000000000001</v>
+        <v>1.0649</v>
       </c>
       <c r="AL19">
-        <v>3.7000000000000002E-3</v>
-      </c>
-      <c r="AO19" s="5"/>
-      <c r="AP19" s="5"/>
-      <c r="AQ19" s="5"/>
-      <c r="AR19" s="5"/>
-      <c r="AS19" s="5"/>
-      <c r="AT19" s="5"/>
-      <c r="AU19" s="5"/>
-      <c r="AV19" s="5"/>
-      <c r="BL19" s="5"/>
-      <c r="BM19" s="5"/>
-      <c r="BN19" s="5"/>
-      <c r="BO19" s="5"/>
-      <c r="BP19" s="5"/>
-      <c r="BQ19" s="5"/>
-      <c r="BR19" s="5"/>
-      <c r="BS19" s="5"/>
-      <c r="BT19" s="5"/>
-      <c r="BU19" s="5"/>
-      <c r="BV19" s="5"/>
-      <c r="BW19" s="5"/>
-      <c r="BX19" s="5"/>
-      <c r="BY19" s="5"/>
+        <v>2.5000000000000001E-3</v>
+      </c>
     </row>
     <row r="20" spans="1:77" ht="26.5">
       <c r="A20" s="13" t="s">
         <v>989</v>
       </c>
       <c r="B20" s="9" t="s">
-        <v>999</v>
+        <v>1000</v>
       </c>
       <c r="C20" s="8" t="s">
-        <v>1011</v>
+        <v>1015</v>
       </c>
       <c r="D20" s="8" t="s">
-        <v>1202</v>
+        <v>1211</v>
       </c>
       <c r="E20" s="8" t="s">
-        <v>1232</v>
+        <v>1236</v>
       </c>
       <c r="F20" s="8" t="s">
-        <v>1202</v>
+        <v>1211</v>
       </c>
       <c r="G20" s="5" t="s">
         <v>965</v>
@@ -35776,51 +36422,64 @@
         <v>268</v>
       </c>
       <c r="W20">
-        <v>0.13400000000000001</v>
+        <v>0.15110000000000001</v>
+      </c>
+      <c r="X20" s="201">
+        <v>37.588690999999997</v>
+      </c>
+      <c r="AA20" s="201">
+        <v>1.311385</v>
+      </c>
+      <c r="AB20" s="204">
+        <f t="shared" si="0"/>
+        <v>28.663352867388294</v>
+      </c>
+      <c r="AC20" s="201">
+        <v>2.1003187313974148</v>
       </c>
       <c r="AD20">
-        <v>-29.9</v>
+        <v>-29.89</v>
       </c>
       <c r="AE20" s="5" t="s">
         <v>1161</v>
       </c>
       <c r="AF20">
-        <v>182030</v>
+        <v>183090</v>
       </c>
       <c r="AG20" s="3">
         <v>2019</v>
       </c>
       <c r="AH20">
-        <v>37.799999999999997</v>
+        <v>45.9</v>
       </c>
       <c r="AI20">
-        <v>3.5</v>
+        <v>2.6</v>
       </c>
       <c r="AK20">
-        <v>1.0463</v>
+        <v>1.0543</v>
       </c>
       <c r="AL20">
-        <v>3.5000000000000001E-3</v>
-      </c>
-    </row>
-    <row r="21" spans="1:77" ht="26.5">
+        <v>2.5999999999999999E-3</v>
+      </c>
+    </row>
+    <row r="21" spans="1:77" ht="15.5">
       <c r="A21" s="13" t="s">
         <v>989</v>
       </c>
-      <c r="B21" s="9" t="s">
-        <v>999</v>
+      <c r="B21" s="7" t="s">
+        <v>1000</v>
       </c>
       <c r="C21" s="8" t="s">
-        <v>1012</v>
+        <v>1016</v>
       </c>
       <c r="D21" s="8" t="s">
-        <v>1203</v>
+        <v>1209</v>
       </c>
       <c r="E21" s="8" t="s">
-        <v>1231</v>
+        <v>1223</v>
       </c>
       <c r="F21" s="8" t="s">
-        <v>1203</v>
+        <v>1209</v>
       </c>
       <c r="G21" s="5" t="s">
         <v>965</v>
@@ -35832,63 +36491,108 @@
         <v>173</v>
       </c>
       <c r="J21" s="8">
-        <v>0</v>
-      </c>
-      <c r="K21" s="8">
         <v>1.7</v>
+      </c>
+      <c r="K21" s="8" t="s">
+        <v>1218</v>
       </c>
       <c r="L21" s="4" t="s">
         <v>239</v>
       </c>
       <c r="M21" s="8" t="s">
-        <v>268</v>
-      </c>
+        <v>269</v>
+      </c>
+      <c r="N21" s="5"/>
+      <c r="O21" s="5"/>
+      <c r="P21" s="5"/>
+      <c r="Q21" s="5"/>
+      <c r="S21" s="104"/>
+      <c r="T21" s="104"/>
+      <c r="U21" s="105"/>
+      <c r="V21" s="12"/>
       <c r="W21">
-        <v>0.1575</v>
+        <v>0.71450000000000002</v>
+      </c>
+      <c r="X21" s="201">
+        <v>5.3597400000000004</v>
+      </c>
+      <c r="Y21" s="5"/>
+      <c r="Z21" s="5"/>
+      <c r="AA21" s="201">
+        <v>0.40640300000000001</v>
+      </c>
+      <c r="AB21" s="204">
+        <f t="shared" si="0"/>
+        <v>13.188239260044833</v>
+      </c>
+      <c r="AC21" s="201">
+        <v>4.352390318319399</v>
       </c>
       <c r="AD21">
-        <v>-29.64</v>
+        <v>-28.37</v>
       </c>
       <c r="AE21" s="5" t="s">
         <v>1161</v>
       </c>
       <c r="AF21">
-        <v>182033</v>
+        <v>182043</v>
       </c>
       <c r="AG21" s="3">
         <v>2019</v>
       </c>
       <c r="AH21">
-        <v>34.200000000000003</v>
+        <v>90.5</v>
       </c>
       <c r="AI21">
-        <v>2.4</v>
+        <v>3.8</v>
       </c>
       <c r="AK21">
-        <v>1.0427</v>
+        <v>1.0994999999999999</v>
       </c>
       <c r="AL21">
-        <v>2.3999999999999998E-3</v>
-      </c>
-    </row>
-    <row r="22" spans="1:77" ht="26.5">
+        <v>3.8E-3</v>
+      </c>
+      <c r="AO21" s="5"/>
+      <c r="AP21" s="5"/>
+      <c r="AQ21" s="5"/>
+      <c r="AR21" s="5"/>
+      <c r="AS21" s="5"/>
+      <c r="AT21" s="5"/>
+      <c r="AU21" s="5"/>
+      <c r="AV21" s="5"/>
+      <c r="BL21" s="5"/>
+      <c r="BM21" s="5"/>
+      <c r="BN21" s="5"/>
+      <c r="BO21" s="5"/>
+      <c r="BP21" s="5"/>
+      <c r="BQ21" s="5"/>
+      <c r="BR21" s="5"/>
+      <c r="BS21" s="5"/>
+      <c r="BT21" s="5"/>
+      <c r="BU21" s="5"/>
+      <c r="BV21" s="5"/>
+      <c r="BW21" s="5"/>
+      <c r="BX21" s="5"/>
+      <c r="BY21" s="5"/>
+    </row>
+    <row r="22" spans="1:77" ht="15.5">
       <c r="A22" s="13" t="s">
         <v>989</v>
       </c>
-      <c r="B22" s="9" t="s">
-        <v>999</v>
+      <c r="B22" s="7" t="s">
+        <v>1000</v>
       </c>
       <c r="C22" s="8" t="s">
-        <v>1013</v>
+        <v>1014</v>
       </c>
       <c r="D22" s="8" t="s">
-        <v>1204</v>
+        <v>1210</v>
       </c>
       <c r="E22" s="8" t="s">
-        <v>1233</v>
+        <v>1224</v>
       </c>
       <c r="F22" s="8" t="s">
-        <v>1204</v>
+        <v>1210</v>
       </c>
       <c r="G22" s="5" t="s">
         <v>965</v>
@@ -35900,63 +36604,108 @@
         <v>173</v>
       </c>
       <c r="J22" s="8">
-        <v>0</v>
-      </c>
-      <c r="K22" s="8">
         <v>1.7</v>
+      </c>
+      <c r="K22" s="8" t="s">
+        <v>1218</v>
       </c>
       <c r="L22" s="4" t="s">
         <v>239</v>
       </c>
       <c r="M22" s="8" t="s">
-        <v>268</v>
-      </c>
+        <v>269</v>
+      </c>
+      <c r="N22" s="5"/>
+      <c r="O22" s="5"/>
+      <c r="P22" s="5"/>
+      <c r="Q22" s="5"/>
+      <c r="S22" s="104"/>
+      <c r="T22" s="104"/>
+      <c r="U22" s="105"/>
+      <c r="V22" s="12"/>
       <c r="W22">
-        <v>0.15110000000000001</v>
+        <v>0.8075</v>
+      </c>
+      <c r="X22" s="201">
+        <v>3.685794</v>
+      </c>
+      <c r="Y22" s="5"/>
+      <c r="Z22" s="5"/>
+      <c r="AA22" s="201">
+        <v>0.38696599999999998</v>
+      </c>
+      <c r="AB22" s="204">
+        <f t="shared" si="0"/>
+        <v>9.5248523126062761</v>
+      </c>
+      <c r="AC22" s="201">
+        <v>5.6698366264129874</v>
       </c>
       <c r="AD22">
-        <v>-29.84</v>
+        <v>-28.08</v>
       </c>
       <c r="AE22" s="5" t="s">
         <v>1161</v>
       </c>
       <c r="AF22">
-        <v>182941</v>
+        <v>182046</v>
       </c>
       <c r="AG22" s="3">
         <v>2019</v>
       </c>
       <c r="AH22">
-        <v>53.3</v>
+        <v>52.8</v>
       </c>
       <c r="AI22">
-        <v>4</v>
+        <v>2.9</v>
       </c>
       <c r="AK22">
-        <v>1.0617000000000001</v>
+        <v>1.0615000000000001</v>
       </c>
       <c r="AL22">
-        <v>4.0000000000000001E-3</v>
-      </c>
-    </row>
-    <row r="23" spans="1:77" ht="26.5">
+        <v>2.8999999999999998E-3</v>
+      </c>
+      <c r="AO22" s="5"/>
+      <c r="AP22" s="5"/>
+      <c r="AQ22" s="5"/>
+      <c r="AR22" s="5"/>
+      <c r="AS22" s="5"/>
+      <c r="AT22" s="5"/>
+      <c r="AU22" s="5"/>
+      <c r="AV22" s="5"/>
+      <c r="BL22" s="5"/>
+      <c r="BM22" s="5"/>
+      <c r="BN22" s="5"/>
+      <c r="BO22" s="5"/>
+      <c r="BP22" s="5"/>
+      <c r="BQ22" s="5"/>
+      <c r="BR22" s="5"/>
+      <c r="BS22" s="5"/>
+      <c r="BT22" s="5"/>
+      <c r="BU22" s="5"/>
+      <c r="BV22" s="5"/>
+      <c r="BW22" s="5"/>
+      <c r="BX22" s="5"/>
+      <c r="BY22" s="5"/>
+    </row>
+    <row r="23" spans="1:77" ht="15.5">
       <c r="A23" s="13" t="s">
         <v>989</v>
       </c>
-      <c r="B23" s="9" t="s">
+      <c r="B23" s="7" t="s">
         <v>1000</v>
       </c>
       <c r="C23" s="8" t="s">
-        <v>1016</v>
+        <v>1015</v>
       </c>
       <c r="D23" s="8" t="s">
-        <v>1209</v>
+        <v>1211</v>
       </c>
       <c r="E23" s="8" t="s">
-        <v>1234</v>
+        <v>1225</v>
       </c>
       <c r="F23" s="8" t="s">
-        <v>1209</v>
+        <v>1211</v>
       </c>
       <c r="G23" s="5" t="s">
         <v>965</v>
@@ -35968,66 +36717,111 @@
         <v>173</v>
       </c>
       <c r="J23" s="8">
-        <v>0</v>
-      </c>
-      <c r="K23" s="8">
         <v>1.7</v>
+      </c>
+      <c r="K23" s="8" t="s">
+        <v>1218</v>
       </c>
       <c r="L23" s="4" t="s">
         <v>239</v>
       </c>
       <c r="M23" s="8" t="s">
-        <v>268</v>
-      </c>
+        <v>269</v>
+      </c>
+      <c r="N23" s="5"/>
+      <c r="O23" s="5"/>
+      <c r="P23" s="5"/>
+      <c r="Q23" s="5"/>
+      <c r="S23" s="104"/>
+      <c r="T23" s="104"/>
+      <c r="U23" s="105"/>
+      <c r="V23" s="12"/>
       <c r="W23">
-        <v>0.13400000000000001</v>
+        <v>0.71609999999999996</v>
+      </c>
+      <c r="X23" s="201">
+        <v>3.9859990000000001</v>
+      </c>
+      <c r="Y23" s="5"/>
+      <c r="Z23" s="5"/>
+      <c r="AA23" s="201">
+        <v>0.35050500000000001</v>
+      </c>
+      <c r="AB23" s="204">
+        <f t="shared" si="0"/>
+        <v>11.37216016889916</v>
+      </c>
+      <c r="AC23" s="201">
+        <v>4.8713362585646047</v>
       </c>
       <c r="AD23">
-        <v>-29.88</v>
+        <v>-27.49</v>
       </c>
       <c r="AE23" s="5" t="s">
         <v>1161</v>
       </c>
       <c r="AF23">
-        <v>182042</v>
+        <v>183091</v>
       </c>
       <c r="AG23" s="3">
         <v>2019</v>
       </c>
       <c r="AH23">
-        <v>74.2</v>
+        <v>60.5</v>
       </c>
       <c r="AI23">
-        <v>2.5</v>
+        <v>2.7</v>
       </c>
       <c r="AK23">
-        <v>1.0831</v>
+        <v>1.069</v>
       </c>
       <c r="AL23">
-        <v>2.5000000000000001E-3</v>
-      </c>
-    </row>
-    <row r="24" spans="1:77" ht="26.5">
+        <v>2.7000000000000001E-3</v>
+      </c>
+      <c r="AO23" s="5"/>
+      <c r="AP23" s="5"/>
+      <c r="AQ23" s="5"/>
+      <c r="AR23" s="5"/>
+      <c r="AS23" s="5"/>
+      <c r="AT23" s="5"/>
+      <c r="AU23" s="5"/>
+      <c r="AV23" s="5"/>
+      <c r="BL23" s="5"/>
+      <c r="BM23" s="5"/>
+      <c r="BN23" s="5"/>
+      <c r="BO23" s="5"/>
+      <c r="BP23" s="5"/>
+      <c r="BQ23" s="5"/>
+      <c r="BR23" s="5"/>
+      <c r="BS23" s="5"/>
+      <c r="BT23" s="5"/>
+      <c r="BU23" s="5"/>
+      <c r="BV23" s="5"/>
+      <c r="BW23" s="5"/>
+      <c r="BX23" s="5"/>
+      <c r="BY23" s="5"/>
+    </row>
+    <row r="24" spans="1:77" ht="15.5">
       <c r="A24" s="13" t="s">
         <v>989</v>
       </c>
-      <c r="B24" s="9" t="s">
+      <c r="B24" s="7" t="s">
         <v>1000</v>
       </c>
       <c r="C24" s="8" t="s">
-        <v>1014</v>
+        <v>1016</v>
       </c>
       <c r="D24" s="8" t="s">
-        <v>1210</v>
+        <v>1213</v>
       </c>
       <c r="E24" s="8" t="s">
-        <v>1235</v>
+        <v>1230</v>
       </c>
       <c r="F24" s="8" t="s">
-        <v>1210</v>
+        <v>1213</v>
       </c>
       <c r="G24" s="5" t="s">
-        <v>965</v>
+        <v>964</v>
       </c>
       <c r="H24" s="8" t="s">
         <v>919</v>
@@ -36045,35 +36839,81 @@
         <v>239</v>
       </c>
       <c r="M24" s="8" t="s">
-        <v>268</v>
-      </c>
+        <v>267</v>
+      </c>
+      <c r="N24" s="5"/>
+      <c r="O24" s="5"/>
+      <c r="P24" s="5"/>
+      <c r="Q24" s="5"/>
+      <c r="R24" s="5"/>
+      <c r="S24" s="104"/>
+      <c r="T24" s="104"/>
+      <c r="U24" s="105"/>
+      <c r="V24" s="12"/>
       <c r="W24">
-        <v>0.1575</v>
+        <v>2.7400000000000001E-2</v>
+      </c>
+      <c r="X24" s="201">
+        <v>38.172716000000001</v>
+      </c>
+      <c r="Y24" s="5"/>
+      <c r="Z24" s="5"/>
+      <c r="AA24" s="201">
+        <v>0.97005200000000003</v>
+      </c>
+      <c r="AB24" s="204">
+        <f t="shared" si="0"/>
+        <v>39.351205914734471</v>
+      </c>
+      <c r="AC24" s="201">
+        <v>3.278918017651963</v>
       </c>
       <c r="AD24">
-        <v>-30.26</v>
+        <v>-29.48</v>
       </c>
       <c r="AE24" s="5" t="s">
         <v>1161</v>
       </c>
       <c r="AF24">
-        <v>182045</v>
+        <v>182960</v>
       </c>
       <c r="AG24" s="3">
         <v>2019</v>
       </c>
       <c r="AH24">
-        <v>56.2</v>
+        <v>-33</v>
       </c>
       <c r="AI24">
-        <v>2.5</v>
+        <v>3.7</v>
       </c>
       <c r="AK24">
-        <v>1.0649</v>
+        <v>0.97470000000000001</v>
       </c>
       <c r="AL24">
-        <v>2.5000000000000001E-3</v>
-      </c>
+        <v>3.7000000000000002E-3</v>
+      </c>
+      <c r="AO24" s="5"/>
+      <c r="AP24" s="5"/>
+      <c r="AQ24" s="5"/>
+      <c r="AR24" s="5"/>
+      <c r="AS24" s="5"/>
+      <c r="AT24" s="5"/>
+      <c r="AU24" s="5"/>
+      <c r="AV24" s="5"/>
+      <c r="BL24" s="5"/>
+      <c r="BM24" s="5"/>
+      <c r="BN24" s="5"/>
+      <c r="BO24" s="5"/>
+      <c r="BP24" s="5"/>
+      <c r="BQ24" s="5"/>
+      <c r="BR24" s="5"/>
+      <c r="BS24" s="5"/>
+      <c r="BT24" s="5"/>
+      <c r="BU24" s="5"/>
+      <c r="BV24" s="5"/>
+      <c r="BW24" s="5"/>
+      <c r="BX24" s="5"/>
+      <c r="BY24" s="5"/>
     </row>
     <row r="25" spans="1:77" ht="26.5">
       <c r="A25" s="13" t="s">
@@ -36083,16 +36923,16 @@
         <v>1000</v>
       </c>
       <c r="C25" s="8" t="s">
-        <v>1015</v>
+        <v>1016</v>
       </c>
       <c r="D25" s="8" t="s">
-        <v>1211</v>
+        <v>1213</v>
       </c>
       <c r="E25" s="8" t="s">
-        <v>1236</v>
+        <v>1237</v>
       </c>
       <c r="F25" s="8" t="s">
-        <v>1211</v>
+        <v>1213</v>
       </c>
       <c r="G25" s="5" t="s">
         <v>965</v>
@@ -36116,38 +36956,51 @@
         <v>268</v>
       </c>
       <c r="W25">
-        <v>0.15110000000000001</v>
+        <v>1.7399999999999999E-2</v>
+      </c>
+      <c r="X25" s="201">
+        <v>46.537331000000002</v>
+      </c>
+      <c r="AA25" s="201">
+        <v>1.278035</v>
+      </c>
+      <c r="AB25" s="204">
+        <f t="shared" si="0"/>
+        <v>36.413189779622627</v>
+      </c>
+      <c r="AC25" s="201">
+        <v>3.6627899679733242</v>
       </c>
       <c r="AD25">
-        <v>-29.89</v>
+        <v>-27.72</v>
       </c>
       <c r="AE25" s="5" t="s">
         <v>1161</v>
       </c>
       <c r="AF25">
-        <v>183090</v>
+        <v>183099</v>
       </c>
       <c r="AG25" s="3">
         <v>2019</v>
       </c>
       <c r="AH25">
-        <v>45.9</v>
+        <v>-75.599999999999994</v>
       </c>
       <c r="AI25">
-        <v>2.6</v>
+        <v>2.9</v>
       </c>
       <c r="AK25">
-        <v>1.0543</v>
+        <v>0.93189999999999995</v>
       </c>
       <c r="AL25">
-        <v>2.5999999999999999E-3</v>
-      </c>
-    </row>
-    <row r="26" spans="1:77" ht="26.5">
+        <v>2.8999999999999998E-3</v>
+      </c>
+    </row>
+    <row r="26" spans="1:77" ht="15.5">
       <c r="A26" s="13" t="s">
         <v>989</v>
       </c>
-      <c r="B26" s="9" t="s">
+      <c r="B26" s="7" t="s">
         <v>1000</v>
       </c>
       <c r="C26" s="8" t="s">
@@ -36157,7 +37010,7 @@
         <v>1213</v>
       </c>
       <c r="E26" s="8" t="s">
-        <v>1237</v>
+        <v>1226</v>
       </c>
       <c r="F26" s="8" t="s">
         <v>1213</v>
@@ -36172,44 +37025,89 @@
         <v>173</v>
       </c>
       <c r="J26" s="8">
-        <v>0</v>
-      </c>
-      <c r="K26" s="8">
         <v>1.7</v>
+      </c>
+      <c r="K26" s="8" t="s">
+        <v>1218</v>
       </c>
       <c r="L26" s="4" t="s">
         <v>239</v>
       </c>
       <c r="M26" s="8" t="s">
-        <v>268</v>
-      </c>
+        <v>269</v>
+      </c>
+      <c r="N26" s="5"/>
+      <c r="O26" s="5"/>
+      <c r="P26" s="5"/>
+      <c r="Q26" s="5"/>
+      <c r="S26" s="104"/>
+      <c r="T26" s="104"/>
+      <c r="U26" s="105"/>
+      <c r="V26" s="12"/>
       <c r="W26">
-        <v>1.7399999999999999E-2</v>
+        <v>0.95520000000000005</v>
+      </c>
+      <c r="X26" s="201">
+        <v>0.87077400000000005</v>
+      </c>
+      <c r="Y26" s="5"/>
+      <c r="Z26" s="5"/>
+      <c r="AA26" s="201">
+        <v>9.2035000000000006E-2</v>
+      </c>
+      <c r="AB26" s="204">
+        <f t="shared" si="0"/>
+        <v>9.4613353615472366</v>
+      </c>
+      <c r="AC26" s="201">
+        <v>6.5641449182158116</v>
       </c>
       <c r="AD26">
-        <v>-27.72</v>
+        <v>-24.87</v>
       </c>
       <c r="AE26" s="5" t="s">
         <v>1161</v>
       </c>
       <c r="AF26">
-        <v>183099</v>
+        <v>182961</v>
       </c>
       <c r="AG26" s="3">
         <v>2019</v>
       </c>
       <c r="AH26">
-        <v>-75.599999999999994</v>
+        <v>-135.6</v>
       </c>
       <c r="AI26">
-        <v>2.9</v>
+        <v>3.6</v>
       </c>
       <c r="AK26">
-        <v>0.93189999999999995</v>
+        <v>0.87129999999999996</v>
       </c>
       <c r="AL26">
-        <v>2.8999999999999998E-3</v>
-      </c>
+        <v>3.5999999999999999E-3</v>
+      </c>
+      <c r="AO26" s="5"/>
+      <c r="AP26" s="5"/>
+      <c r="AQ26" s="5"/>
+      <c r="AR26" s="5"/>
+      <c r="AS26" s="5"/>
+      <c r="AT26" s="5"/>
+      <c r="AU26" s="5"/>
+      <c r="AV26" s="5"/>
+      <c r="BL26" s="5"/>
+      <c r="BM26" s="5"/>
+      <c r="BN26" s="5"/>
+      <c r="BO26" s="5"/>
+      <c r="BP26" s="5"/>
+      <c r="BQ26" s="5"/>
+      <c r="BR26" s="5"/>
+      <c r="BS26" s="5"/>
+      <c r="BT26" s="5"/>
+      <c r="BU26" s="5"/>
+      <c r="BV26" s="5"/>
+      <c r="BW26" s="5"/>
+      <c r="BX26" s="5"/>
+      <c r="BY26" s="5"/>
     </row>
     <row r="27" spans="1:77" ht="14.5">
       <c r="A27" s="13"/>
@@ -40117,7 +41015,7 @@
           <x14:formula1>
             <xm:f>'controlled vocabulary'!$AZ$4:$AZ$8</xm:f>
           </x14:formula1>
-          <xm:sqref>W4:W26 AN27:AN1048576</xm:sqref>
+          <xm:sqref>AN27:AN1048576 W4:W26</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0600-000002000000}">
           <x14:formula1>
@@ -42904,10 +43802,10 @@
       <c r="AT1" s="64" t="s">
         <v>162</v>
       </c>
-      <c r="AU1" s="199" t="s">
+      <c r="AU1" s="205" t="s">
         <v>985</v>
       </c>
-      <c r="AV1" s="199"/>
+      <c r="AV1" s="205"/>
       <c r="AW1" s="153"/>
       <c r="AX1" s="66"/>
       <c r="AY1" s="66"/>
